--- a/QuantLibXL/Data2/XLS/JPY/JPY_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY/JPY_YCSTDBootstrapping.xlsx
@@ -22,7 +22,7 @@
     <definedName name="Accuracy">'General Settings'!$D$19</definedName>
     <definedName name="BondBasisDayCounter">'General Settings'!$M$13</definedName>
     <definedName name="Calendar">'General Settings'!$M$24</definedName>
-    <definedName name="Conventions" localSheetId="6">Swaps!$O$5:$Q$9</definedName>
+    <definedName name="Conventions" localSheetId="6">Swaps!$P$5:$R$9</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
     <definedName name="FamilyName">'General Settings'!$M$11</definedName>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="149">
   <si>
     <t>60Y</t>
   </si>
@@ -659,12 +659,24 @@
   <si>
     <t>Join Calendar</t>
   </si>
+  <si>
+    <t>Future Type</t>
+  </si>
+  <si>
+    <t>IMM</t>
+  </si>
+  <si>
+    <t>Future Date</t>
+  </si>
+  <si>
+    <t>Settl Days</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="14">
+  <numFmts count="15">
     <numFmt numFmtId="164" formatCode="ddd\,\ d\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
@@ -679,6 +691,7 @@
     <numFmt numFmtId="175" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1700,9 +1713,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1775,21 +1785,6 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1806,6 +1801,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2201,7 +2214,7 @@
     <row r="1" spans="1:33" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Dec 24 2014 09:17:06</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  5 2015 15:27:06</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2688,7 +2701,7 @@
       </c>
       <c r="D14" s="22" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_JPYYCSTD#0003</v>
+        <v>_JPYYCSTD#0001</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2862,10 +2875,10 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="200"/>
-      <c r="M18" s="200"/>
-      <c r="N18" s="201"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="195"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -2902,14 +2915,14 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="199"/>
-      <c r="L19" s="202" t="s">
+      <c r="K19" s="193"/>
+      <c r="L19" s="196" t="s">
         <v>141</v>
       </c>
-      <c r="M19" s="203" t="s">
+      <c r="M19" s="197" t="s">
         <v>124</v>
       </c>
-      <c r="N19" s="201"/>
+      <c r="N19" s="195"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -2945,14 +2958,14 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="199"/>
-      <c r="L20" s="202" t="s">
+      <c r="K20" s="193"/>
+      <c r="L20" s="196" t="s">
         <v>142</v>
       </c>
-      <c r="M20" s="204" t="s">
+      <c r="M20" s="198" t="s">
         <v>140</v>
       </c>
-      <c r="N20" s="201"/>
+      <c r="N20" s="195"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -2988,15 +3001,15 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="202" t="s">
+      <c r="K21" s="193"/>
+      <c r="L21" s="196" t="s">
         <v>143</v>
       </c>
-      <c r="M21" s="204" t="b">
+      <c r="M21" s="198" t="b">
         <f>_xll.qlCalendarIsHoliday(LocalCalendar,_xll.qlCalendarAdvance(LiborCalendar,_xll.qlSettingsEvaluationDate(Trigger),2&amp;"D","f",FALSE,Trigger))</f>
         <v>0</v>
       </c>
-      <c r="N21" s="201"/>
+      <c r="N21" s="195"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -3028,14 +3041,14 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="199"/>
-      <c r="L22" s="202" t="s">
+      <c r="K22" s="193"/>
+      <c r="L22" s="196" t="s">
         <v>138</v>
       </c>
-      <c r="M22" s="205" t="s">
+      <c r="M22" s="199" t="s">
         <v>139</v>
       </c>
-      <c r="N22" s="201"/>
+      <c r="N22" s="195"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -3061,11 +3074,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>42032</v>
+        <v>42135</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.3636110672599748E-2</v>
+        <v>1.5037418321779013E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3073,15 +3086,15 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="199"/>
-      <c r="L23" s="202" t="s">
+      <c r="K23" s="193"/>
+      <c r="L23" s="196" t="s">
         <v>144</v>
       </c>
-      <c r="M23" s="205" t="str">
+      <c r="M23" s="199" t="str">
         <f>M22&amp;"("&amp;LocalCalendar&amp;","&amp;LiborCalendar&amp;")"</f>
         <v>JoinHolidays(Japan,UnitedKingdom::Exchange)</v>
       </c>
-      <c r="N23" s="201"/>
+      <c r="N23" s="195"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -3107,11 +3120,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>52992</v>
+        <v>53097</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>4.1275253303319951E-4</v>
+        <v>4.6344655155437602E-4</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3119,15 +3132,15 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="199"/>
-      <c r="L24" s="202" t="s">
+      <c r="K24" s="193"/>
+      <c r="L24" s="196" t="s">
         <v>64</v>
       </c>
-      <c r="M24" s="205" t="str">
+      <c r="M24" s="199" t="str">
         <f>IF(HolidayCheck,JoinCalendar,LiborCalendar)</f>
         <v>UnitedKingdom::Exchange</v>
       </c>
-      <c r="N24" s="201"/>
+      <c r="N24" s="195"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -3164,10 +3177,10 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="206"/>
-      <c r="L25" s="207"/>
-      <c r="M25" s="207"/>
-      <c r="N25" s="208"/>
+      <c r="K25" s="200"/>
+      <c r="L25" s="201"/>
+      <c r="M25" s="201"/>
+      <c r="N25" s="202"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -4614,7 +4627,7 @@
   <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4637,11 +4650,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="204" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="196"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="206"/>
       <c r="E1" s="114" t="s">
         <v>49</v>
       </c>
@@ -4678,7 +4691,7 @@
       </c>
       <c r="E2" s="117" t="str">
         <f>Deposits!E3</f>
-        <v>obj_0034e#0002</v>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="F2" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E2),"LastFixing","D"),"Libor","")</f>
@@ -4700,11 +4713,11 @@
       </c>
       <c r="L2" s="119">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>42032</v>
+        <v>42135</v>
       </c>
       <c r="M2" s="120">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>42033</v>
+        <v>42136</v>
       </c>
       <c r="N2" s="63">
         <v>10</v>
@@ -4721,7 +4734,7 @@
       </c>
       <c r="E3" s="117" t="str">
         <f>Deposits!E4</f>
-        <v>obj_0034d#0002</v>
+        <v>obj_0034e#0001</v>
       </c>
       <c r="F3" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E3),"LastFixing","D"),"Libor","")</f>
@@ -4743,11 +4756,11 @@
       </c>
       <c r="L3" s="119">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M3" s="120">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>42037</v>
+        <v>42138</v>
       </c>
       <c r="N3" s="63">
         <v>20</v>
@@ -4764,7 +4777,7 @@
       </c>
       <c r="E4" s="117" t="str">
         <f>Deposits!E5</f>
-        <v>obj_00319#0002</v>
+        <v>obj_0031c#0001</v>
       </c>
       <c r="F4" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E4),"LastFixing","D"),"Libor","")</f>
@@ -4772,7 +4785,7 @@
       </c>
       <c r="G4" s="118">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>4.0709999999999997E-4</v>
+        <v>4.571E-4</v>
       </c>
       <c r="H4" s="118"/>
       <c r="I4" s="65" t="b">
@@ -4786,11 +4799,11 @@
       </c>
       <c r="L4" s="119">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M4" s="120">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>42041</v>
+        <v>42144</v>
       </c>
       <c r="N4" s="63">
         <v>30</v>
@@ -4807,7 +4820,7 @@
       </c>
       <c r="E5" s="117" t="str">
         <f>Deposits!E8</f>
-        <v>obj_00327#0002</v>
+        <v>obj_00315#0001</v>
       </c>
       <c r="F5" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E5),"LastFixing","D"),"Libor","")</f>
@@ -4815,7 +4828,7 @@
       </c>
       <c r="G5" s="118">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>7.1429999999999996E-4</v>
+        <v>6.8570000000000002E-4</v>
       </c>
       <c r="H5" s="118"/>
       <c r="I5" s="65" t="b">
@@ -4829,11 +4842,11 @@
       </c>
       <c r="L5" s="119">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M5" s="120">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>42062</v>
+        <v>42170</v>
       </c>
       <c r="N5" s="63">
         <v>60</v>
@@ -4850,7 +4863,7 @@
       </c>
       <c r="E6" s="117" t="str">
         <f>Deposits!E9</f>
-        <v>obj_00320#0002</v>
+        <v>obj_0031a#0001</v>
       </c>
       <c r="F6" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E6),"LastFixing","D"),"Libor","")</f>
@@ -4858,7 +4871,7 @@
       </c>
       <c r="G6" s="118">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>9.0709999999999999E-4</v>
+        <v>8.7140000000000004E-4</v>
       </c>
       <c r="H6" s="118"/>
       <c r="I6" s="65" t="b">
@@ -4872,11 +4885,11 @@
       </c>
       <c r="L6" s="119">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M6" s="120">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>42094</v>
+        <v>42198</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4887,7 +4900,7 @@
       </c>
       <c r="E7" s="117" t="str">
         <f>Deposits!E10</f>
-        <v>obj_0031d#0002</v>
+        <v>obj_0031f#0001</v>
       </c>
       <c r="F7" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E7),"LastFixing","D"),"Libor","")</f>
@@ -4895,7 +4908,7 @@
       </c>
       <c r="G7" s="118">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>1.0214E-3</v>
+        <v>1.0070999999999999E-3</v>
       </c>
       <c r="H7" s="118"/>
       <c r="I7" s="65" t="b">
@@ -4909,11 +4922,11 @@
       </c>
       <c r="L7" s="119">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M7" s="120">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>42124</v>
+        <v>42229</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4924,7 +4937,7 @@
       </c>
       <c r="E8" s="117" t="str">
         <f>Deposits!E13</f>
-        <v>obj_00324#0002</v>
+        <v>obj_0031b#0001</v>
       </c>
       <c r="F8" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E8),"LastFixing","D"),"Libor","")</f>
@@ -4932,7 +4945,7 @@
       </c>
       <c r="G8" s="118">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>1.4357E-3</v>
+        <v>1.3786E-3</v>
       </c>
       <c r="H8" s="118"/>
       <c r="I8" s="65" t="b">
@@ -4946,11 +4959,11 @@
       </c>
       <c r="L8" s="119">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M8" s="120">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>42216</v>
+        <v>42321</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4961,7 +4974,7 @@
       </c>
       <c r="E9" s="117" t="str">
         <f>Deposits!E19</f>
-        <v>obj_00315#0002</v>
+        <v>obj_0031d#0001</v>
       </c>
       <c r="F9" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E9),"LastFixing","D"),"Libor","")</f>
@@ -4969,7 +4982,7 @@
       </c>
       <c r="G9" s="118">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>2.6756999999999996E-3</v>
+        <v>2.5400000000000002E-3</v>
       </c>
       <c r="H9" s="118"/>
       <c r="I9" s="65" t="b">
@@ -4983,11 +4996,11 @@
       </c>
       <c r="L9" s="119">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M9" s="120">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>42398</v>
+        <v>42503</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5003,7 +5016,7 @@
       </c>
       <c r="E10" s="133" t="str">
         <f>FRAs!G3</f>
-        <v>obj_00323#0002</v>
+        <v>obj_00316#0001</v>
       </c>
       <c r="F10" s="133" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E10),"LastFixing","D"),"Libor","")</f>
@@ -5025,11 +5038,11 @@
       </c>
       <c r="L10" s="136">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>42062</v>
+        <v>42170</v>
       </c>
       <c r="M10" s="137">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>42153</v>
+        <v>42262</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5045,7 +5058,7 @@
       </c>
       <c r="E11" s="117" t="str">
         <f>FRAs!G4</f>
-        <v>obj_0031b#0002</v>
+        <v>obj_00324#0001</v>
       </c>
       <c r="F11" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E11),"LastFixing","D"),"Libor","")</f>
@@ -5067,11 +5080,11 @@
       </c>
       <c r="L11" s="119">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>42094</v>
+        <v>42198</v>
       </c>
       <c r="M11" s="120">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>42185</v>
+        <v>42290</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5087,7 +5100,7 @@
       </c>
       <c r="E12" s="117" t="str">
         <f>FRAs!G5</f>
-        <v>obj_00318#0002</v>
+        <v>obj_00318#0001</v>
       </c>
       <c r="F12" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E12),"LastFixing","D"),"Libor","")</f>
@@ -5095,7 +5108,7 @@
       </c>
       <c r="G12" s="118">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>1E-3</v>
+        <v>1.0500000000000002E-3</v>
       </c>
       <c r="H12" s="118"/>
       <c r="I12" s="65" t="b">
@@ -5109,11 +5122,11 @@
       </c>
       <c r="L12" s="119">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>42124</v>
+        <v>42229</v>
       </c>
       <c r="M12" s="120">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>42216</v>
+        <v>42321</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5129,7 +5142,7 @@
       </c>
       <c r="E13" s="117" t="str">
         <f>FRAs!G6</f>
-        <v>obj_00326#0002</v>
+        <v>obj_00325#0001</v>
       </c>
       <c r="F13" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E13),"LastFixing","D"),"Libor","")</f>
@@ -5137,7 +5150,7 @@
       </c>
       <c r="G13" s="118">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>1.0499999999999999E-3</v>
+        <v>1.0500000000000002E-3</v>
       </c>
       <c r="H13" s="118"/>
       <c r="I13" s="65" t="b">
@@ -5151,11 +5164,11 @@
       </c>
       <c r="L13" s="119">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>42153</v>
+        <v>42261</v>
       </c>
       <c r="M13" s="120">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>42244</v>
+        <v>42352</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5171,7 +5184,7 @@
       </c>
       <c r="E14" s="117" t="str">
         <f>FRAs!G7</f>
-        <v>obj_00325#0002</v>
+        <v>obj_00321#0001</v>
       </c>
       <c r="F14" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E14),"LastFixing","D"),"Libor","")</f>
@@ -5193,11 +5206,11 @@
       </c>
       <c r="L14" s="119">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>42185</v>
+        <v>42290</v>
       </c>
       <c r="M14" s="120">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>42277</v>
+        <v>42382</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5213,7 +5226,7 @@
       </c>
       <c r="E15" s="117" t="str">
         <f>FRAs!G8</f>
-        <v>obj_00321#0002</v>
+        <v>obj_0031e#0001</v>
       </c>
       <c r="F15" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E15),"LastFixing","D"),"Libor","")</f>
@@ -5235,11 +5248,11 @@
       </c>
       <c r="L15" s="119">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>42216</v>
+        <v>42321</v>
       </c>
       <c r="M15" s="120">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>42307</v>
+        <v>42415</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5255,7 +5268,7 @@
       </c>
       <c r="E16" s="117" t="str">
         <f>FRAs!G9</f>
-        <v>obj_0031e#0002</v>
+        <v>obj_00323#0001</v>
       </c>
       <c r="F16" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E16),"LastFixing","D"),"Libor","")</f>
@@ -5277,11 +5290,11 @@
       </c>
       <c r="L16" s="119">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>42307</v>
+        <v>42415</v>
       </c>
       <c r="M16" s="120">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42398</v>
+        <v>42506</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5297,7 +5310,7 @@
       </c>
       <c r="E17" s="117" t="str">
         <f>FRAs!G10</f>
-        <v>obj_00317#0002</v>
+        <v>obj_00326#0001</v>
       </c>
       <c r="F17" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E17),"LastFixing","D"),"Libor","")</f>
@@ -5305,7 +5318,7 @@
       </c>
       <c r="G17" s="118">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="H17" s="118"/>
       <c r="I17" s="65" t="b">
@@ -5319,11 +5332,11 @@
       </c>
       <c r="L17" s="119">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>42398</v>
+        <v>42503</v>
       </c>
       <c r="M17" s="120">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42488</v>
+        <v>42597</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5339,7 +5352,7 @@
       </c>
       <c r="E18" s="117" t="str">
         <f>FRAs!G11</f>
-        <v>obj_0031c#0002</v>
+        <v>obj_00319#0001</v>
       </c>
       <c r="F18" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E18),"LastFixing","D"),"Libor","")</f>
@@ -5347,7 +5360,7 @@
       </c>
       <c r="G18" s="118">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>1.2000000000000001E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="H18" s="118"/>
       <c r="I18" s="65" t="b">
@@ -5361,11 +5374,11 @@
       </c>
       <c r="L18" s="119">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>42489</v>
+        <v>42597</v>
       </c>
       <c r="M18" s="120">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42580</v>
+        <v>42689</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5381,7 +5394,7 @@
       </c>
       <c r="E19" s="117" t="str">
         <f>FRAs!G12</f>
-        <v>obj_00322#0002</v>
+        <v>obj_00322#0001</v>
       </c>
       <c r="F19" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E19),"LastFixing","D"),"Libor","")</f>
@@ -5389,7 +5402,7 @@
       </c>
       <c r="G19" s="118">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>1.15E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="H19" s="118"/>
       <c r="I19" s="65" t="b">
@@ -5403,11 +5416,11 @@
       </c>
       <c r="L19" s="119">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>42580</v>
+        <v>42688</v>
       </c>
       <c r="M19" s="120">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42674</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5423,7 +5436,7 @@
       </c>
       <c r="E20" s="122" t="str">
         <f>FRAs!G13</f>
-        <v>obj_0031a#0002</v>
+        <v>obj_00320#0001</v>
       </c>
       <c r="F20" s="122" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E20),"LastFixing","D"),"Libor","")</f>
@@ -5431,7 +5444,7 @@
       </c>
       <c r="G20" s="123">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
-        <v>1.0499999999999999E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="H20" s="123"/>
       <c r="I20" s="124" t="b">
@@ -5445,11 +5458,11 @@
       </c>
       <c r="L20" s="125">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>42674</v>
+        <v>42779</v>
       </c>
       <c r="M20" s="126">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42766</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5463,15 +5476,15 @@
       </c>
       <c r="D21" s="117" t="str">
         <f t="array" ref="D21:D62">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A21:$A62)</f>
-        <v>G5</v>
+        <v>K5</v>
       </c>
       <c r="E21" s="117" t="str">
-        <f>Futures!H3</f>
-        <v>obj_0036e#0002</v>
+        <f>Futures!J3</f>
+        <v>obj_00351#0001</v>
       </c>
       <c r="F21" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E21),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MG5_Quote</v>
+        <v>JPYFUT3MK5_Quote</v>
       </c>
       <c r="G21" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E21,Trigger)</f>
@@ -5509,15 +5522,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D22" s="117" t="str">
-        <v>H5</v>
+        <v>M5</v>
       </c>
       <c r="E22" s="117" t="str">
-        <f>Futures!H4</f>
-        <v>obj_00360#0002</v>
+        <f>Futures!J4</f>
+        <v>obj_00372#0001</v>
       </c>
       <c r="F22" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E22),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH5_Quote</v>
+        <v>JPYFUT3MM5_Quote</v>
       </c>
       <c r="G22" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E22,Trigger)</f>
@@ -5555,15 +5568,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D23" s="117" t="str">
-        <v>J5</v>
+        <v>N5</v>
       </c>
       <c r="E23" s="117" t="str">
-        <f>Futures!H5</f>
-        <v>obj_0036b#0002</v>
+        <f>Futures!J5</f>
+        <v>obj_00359#0001</v>
       </c>
       <c r="F23" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E23),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MJ5_Quote</v>
+        <v>JPYFUT3MN5_Quote</v>
       </c>
       <c r="G23" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E23,Trigger)</f>
@@ -5601,15 +5614,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D24" s="117" t="str">
-        <v>K5</v>
+        <v>Q5</v>
       </c>
       <c r="E24" s="117" t="str">
-        <f>Futures!H6</f>
-        <v>obj_00376#0002</v>
+        <f>Futures!J6</f>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="F24" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E24),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MK5_Quote</v>
+        <v>JPYFUT3MQ5_Quote</v>
       </c>
       <c r="G24" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E24,Trigger)</f>
@@ -5647,15 +5660,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D25" s="117" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="E25" s="117" t="str">
-        <f>Futures!H7</f>
-        <v>obj_00359#0002</v>
+        <f>Futures!J7</f>
+        <v>obj_00371#0001</v>
       </c>
       <c r="F25" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E25),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM5_Quote</v>
+        <v>JPYFUT3MU5_Quote</v>
       </c>
       <c r="G25" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E25,Trigger)</f>
@@ -5693,15 +5706,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D26" s="117" t="str">
-        <v>N5</v>
+        <v>V5</v>
       </c>
       <c r="E26" s="117" t="str">
-        <f>Futures!H8</f>
-        <v>obj_00356#0002</v>
+        <f>Futures!J8</f>
+        <v>obj_00360#0001</v>
       </c>
       <c r="F26" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E26),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MN5_Quote</v>
+        <v>JPYFUT3MV5_Quote</v>
       </c>
       <c r="G26" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E26,Trigger)</f>
@@ -5739,15 +5752,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D27" s="117" t="str">
-        <v>Q5</v>
+        <v>X5</v>
       </c>
       <c r="E27" s="117" t="str">
-        <f>Futures!H9</f>
-        <v>obj_00372#0002</v>
+        <f>Futures!J9</f>
+        <v>obj_00366#0001</v>
       </c>
       <c r="F27" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E27),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MQ5_Quote</v>
+        <v>JPYFUT3MX5_Quote</v>
       </c>
       <c r="G27" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E27,Trigger)</f>
@@ -5785,15 +5798,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D28" s="117" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E28" s="117" t="str">
-        <f>Futures!H10</f>
-        <v>obj_00358#0002</v>
+        <f>Futures!J10</f>
+        <v>obj_00352#0001</v>
       </c>
       <c r="F28" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E28),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU5_Quote</v>
+        <v>JPYFUT3MZ5_Quote</v>
       </c>
       <c r="G28" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E28,Trigger)</f>
@@ -5831,15 +5844,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D29" s="117" t="str">
-        <v>V5</v>
+        <v>F6</v>
       </c>
       <c r="E29" s="117" t="str">
-        <f>Futures!H11</f>
-        <v>obj_0036c#0002</v>
+        <f>Futures!J11</f>
+        <v>obj_00376#0001</v>
       </c>
       <c r="F29" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E29),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MV5_Quote</v>
+        <v>JPYFUT3MF6_Quote</v>
       </c>
       <c r="G29" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E29,Trigger)</f>
@@ -5877,15 +5890,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D30" s="117" t="str">
-        <v>X5</v>
+        <v>G6</v>
       </c>
       <c r="E30" s="117" t="str">
-        <f>Futures!H12</f>
-        <v>obj_00364#0002</v>
+        <f>Futures!J12</f>
+        <v>obj_00373#0001</v>
       </c>
       <c r="F30" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E30),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MX5_Quote</v>
+        <v>JPYFUT3MG6_Quote</v>
       </c>
       <c r="G30" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E30,Trigger)</f>
@@ -5923,15 +5936,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D31" s="117" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E31" s="117" t="str">
-        <f>Futures!H13</f>
-        <v>obj_0036a#0002</v>
+        <f>Futures!J13</f>
+        <v>obj_00354#0001</v>
       </c>
       <c r="F31" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E31),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ5_Quote</v>
+        <v>JPYFUT3MH6_Quote</v>
       </c>
       <c r="G31" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E31,Trigger)</f>
@@ -5969,15 +5982,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D32" s="117" t="str">
-        <v>F6</v>
+        <v>J6</v>
       </c>
       <c r="E32" s="117" t="str">
-        <f>Futures!H14</f>
-        <v>obj_0035f#0002</v>
+        <f>Futures!J14</f>
+        <v>obj_00358#0001</v>
       </c>
       <c r="F32" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E32),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MF6_Quote</v>
+        <v>JPYFUT3MJ6_Quote</v>
       </c>
       <c r="G32" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E32,Trigger)</f>
@@ -6015,15 +6028,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D33" s="117" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E33" s="117" t="str">
-        <f>Futures!H15</f>
-        <v>obj_00361#0002</v>
+        <f>Futures!J15</f>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="F33" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E33),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH6_Quote</v>
+        <v>JPYFUT3MM6_Quote</v>
       </c>
       <c r="G33" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E33,Trigger)</f>
@@ -6061,15 +6074,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D34" s="117" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E34" s="117" t="str">
-        <f>Futures!H16</f>
-        <v>obj_0035b#0002</v>
+        <f>Futures!J16</f>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="F34" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E34),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM6_Quote</v>
+        <v>JPYFUT3MU6_Quote</v>
       </c>
       <c r="G34" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E34,Trigger)</f>
@@ -6107,15 +6120,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D35" s="117" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E35" s="117" t="str">
-        <f>Futures!H17</f>
-        <v>obj_0035e#0002</v>
+        <f>Futures!J17</f>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="F35" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E35),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU6_Quote</v>
+        <v>JPYFUT3MZ6_Quote</v>
       </c>
       <c r="G35" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E35,Trigger)</f>
@@ -6153,15 +6166,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D36" s="117" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E36" s="117" t="str">
-        <f>Futures!H18</f>
-        <v>obj_00374#0002</v>
+        <f>Futures!J18</f>
+        <v>obj_00361#0001</v>
       </c>
       <c r="F36" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E36),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ6_Quote</v>
+        <v>JPYFUT3MH7_Quote</v>
       </c>
       <c r="G36" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E36,Trigger)</f>
@@ -6199,15 +6212,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D37" s="117" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E37" s="117" t="str">
-        <f>Futures!H19</f>
-        <v>obj_0035c#0002</v>
+        <f>Futures!J19</f>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="F37" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E37),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH7_Quote</v>
+        <v>JPYFUT3MM7_Quote</v>
       </c>
       <c r="G37" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E37,Trigger)</f>
@@ -6245,15 +6258,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D38" s="117" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E38" s="117" t="str">
-        <f>Futures!H20</f>
-        <v>obj_0035a#0002</v>
+        <f>Futures!J20</f>
+        <v>obj_00353#0001</v>
       </c>
       <c r="F38" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E38),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM7_Quote</v>
+        <v>JPYFUT3MU7_Quote</v>
       </c>
       <c r="G38" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E38,Trigger)</f>
@@ -6291,15 +6304,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D39" s="117" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E39" s="117" t="str">
-        <f>Futures!H21</f>
-        <v>obj_00354#0002</v>
+        <f>Futures!J21</f>
+        <v>obj_00374#0001</v>
       </c>
       <c r="F39" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E39),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU7_Quote</v>
+        <v>JPYFUT3MZ7_Quote</v>
       </c>
       <c r="G39" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E39,Trigger)</f>
@@ -6337,15 +6350,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D40" s="117" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E40" s="117" t="str">
-        <f>Futures!H22</f>
-        <v>obj_00355#0002</v>
+        <f>Futures!J22</f>
+        <v>obj_00378#0001</v>
       </c>
       <c r="F40" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E40),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ7_Quote</v>
+        <v>JPYFUT3MH8_Quote</v>
       </c>
       <c r="G40" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E40,Trigger)</f>
@@ -6383,15 +6396,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D41" s="117" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E41" s="117" t="str">
-        <f>Futures!H23</f>
-        <v>obj_00352#0002</v>
+        <f>Futures!J23</f>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="F41" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E41),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH8_Quote</v>
+        <v>JPYFUT3MM8_Quote</v>
       </c>
       <c r="G41" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E41,Trigger)</f>
@@ -6429,15 +6442,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D42" s="117" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E42" s="117" t="str">
-        <f>Futures!H24</f>
-        <v>obj_00366#0002</v>
+        <f>Futures!J24</f>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="F42" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E42),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM8_Quote</v>
+        <v>JPYFUT3MU8_Quote</v>
       </c>
       <c r="G42" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E42,Trigger)</f>
@@ -6475,15 +6488,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D43" s="117" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E43" s="117" t="str">
-        <f>Futures!H25</f>
-        <v>obj_00377#0002</v>
+        <f>Futures!J25</f>
+        <v>obj_00377#0001</v>
       </c>
       <c r="F43" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E43),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU8_Quote</v>
+        <v>JPYFUT3MZ8_Quote</v>
       </c>
       <c r="G43" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E43,Trigger)</f>
@@ -6521,15 +6534,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D44" s="117" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E44" s="117" t="str">
-        <f>Futures!H26</f>
-        <v>obj_00375#0002</v>
+        <f>Futures!J26</f>
+        <v>obj_00363#0001</v>
       </c>
       <c r="F44" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E44),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ8_Quote</v>
+        <v>JPYFUT3MH9_Quote</v>
       </c>
       <c r="G44" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E44,Trigger)</f>
@@ -6567,15 +6580,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D45" s="117" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E45" s="117" t="str">
-        <f>Futures!H27</f>
-        <v>obj_0036d#0002</v>
+        <f>Futures!J27</f>
+        <v>obj_00369#0001</v>
       </c>
       <c r="F45" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E45),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH9_Quote</v>
+        <v>JPYFUT3MM9_Quote</v>
       </c>
       <c r="G45" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E45,Trigger)</f>
@@ -6613,15 +6626,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D46" s="117" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E46" s="117" t="str">
-        <f>Futures!H28</f>
-        <v>obj_00365#0002</v>
+        <f>Futures!J28</f>
+        <v>obj_00364#0001</v>
       </c>
       <c r="F46" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E46),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM9_Quote</v>
+        <v>JPYFUT3MU9_Quote</v>
       </c>
       <c r="G46" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E46,Trigger)</f>
@@ -6659,15 +6672,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D47" s="117" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E47" s="117" t="str">
-        <f>Futures!H29</f>
-        <v>obj_00362#0002</v>
+        <f>Futures!J29</f>
+        <v>obj_00362#0001</v>
       </c>
       <c r="F47" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E47),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU9_Quote</v>
+        <v>JPYFUT3MZ9_Quote</v>
       </c>
       <c r="G47" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E47,Trigger)</f>
@@ -6705,15 +6718,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D48" s="117" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E48" s="117" t="str">
-        <f>Futures!H30</f>
-        <v>obj_00367#0002</v>
+        <f>Futures!J30</f>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="F48" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E48),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ9_Quote</v>
+        <v>JPYFUT3MH0_Quote</v>
       </c>
       <c r="G48" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E48,Trigger)</f>
@@ -6751,15 +6764,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D49" s="117" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E49" s="117" t="str">
-        <f>Futures!H31</f>
-        <v>obj_0034f#0002</v>
+        <f>Futures!J31</f>
+        <v>obj_00367#0001</v>
       </c>
       <c r="F49" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E49),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH0_Quote</v>
+        <v>JPYFUT3MM0_Quote</v>
       </c>
       <c r="G49" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E49,Trigger)</f>
@@ -6797,15 +6810,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D50" s="117" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E50" s="117" t="str">
-        <f>Futures!H32</f>
-        <v>obj_00368#0002</v>
+        <f>Futures!J32</f>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="F50" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E50),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM0_Quote</v>
+        <v>JPYFUT3MU0_Quote</v>
       </c>
       <c r="G50" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E50,Trigger)</f>
@@ -6843,15 +6856,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D51" s="117" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E51" s="117" t="str">
-        <f>Futures!H33</f>
-        <v>obj_00370#0002</v>
+        <f>Futures!J33</f>
+        <v>obj_00368#0001</v>
       </c>
       <c r="F51" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E51),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU0_Quote</v>
+        <v>JPYFUT3MZ0_Quote</v>
       </c>
       <c r="G51" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E51,Trigger)</f>
@@ -6889,15 +6902,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D52" s="117" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E52" s="117" t="str">
-        <f>Futures!H34</f>
-        <v>obj_00357#0002</v>
+        <f>Futures!J34</f>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="F52" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E52),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ0_Quote</v>
+        <v>JPYFUT3MH1_Quote</v>
       </c>
       <c r="G52" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E52,Trigger)</f>
@@ -6936,15 +6949,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D53" s="117" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E53" s="117" t="str">
-        <f>Futures!H35</f>
-        <v>obj_0036f#0002</v>
+        <f>Futures!J35</f>
+        <v>obj_00356#0001</v>
       </c>
       <c r="F53" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E53),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH1_Quote</v>
+        <v>JPYFUT3MM1_Quote</v>
       </c>
       <c r="G53" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E53,Trigger)</f>
@@ -6983,15 +6996,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D54" s="117" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E54" s="117" t="str">
-        <f>Futures!H36</f>
-        <v>obj_00353#0002</v>
+        <f>Futures!J36</f>
+        <v>obj_00375#0001</v>
       </c>
       <c r="F54" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E54),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM1_Quote</v>
+        <v>JPYFUT3MU1_Quote</v>
       </c>
       <c r="G54" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E54,Trigger)</f>
@@ -7030,15 +7043,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D55" s="117" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E55" s="117" t="str">
-        <f>Futures!H37</f>
-        <v>obj_00369#0002</v>
+        <f>Futures!J37</f>
+        <v>obj_00370#0001</v>
       </c>
       <c r="F55" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E55),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU1_Quote</v>
+        <v>JPYFUT3MZ1_Quote</v>
       </c>
       <c r="G55" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E55,Trigger)</f>
@@ -7077,15 +7090,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D56" s="117" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E56" s="117" t="str">
-        <f>Futures!H38</f>
-        <v>obj_00373#0002</v>
+        <f>Futures!J38</f>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="F56" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E56),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ1_Quote</v>
+        <v>JPYFUT3MH2_Quote</v>
       </c>
       <c r="G56" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E56,Trigger)</f>
@@ -7124,15 +7137,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D57" s="117" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E57" s="117" t="str">
-        <f>Futures!H39</f>
-        <v>obj_00351#0002</v>
+        <f>Futures!J39</f>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="F57" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E57),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH2_Quote</v>
+        <v>JPYFUT3MM2_Quote</v>
       </c>
       <c r="G57" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E57,Trigger)</f>
@@ -7171,15 +7184,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D58" s="117" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E58" s="117" t="str">
-        <f>Futures!H40</f>
-        <v>obj_00371#0002</v>
+        <f>Futures!J40</f>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="F58" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E58),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM2_Quote</v>
+        <v>JPYFUT3MU2_Quote</v>
       </c>
       <c r="G58" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E58,Trigger)</f>
@@ -7218,15 +7231,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D59" s="117" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E59" s="117" t="str">
-        <f>Futures!H41</f>
-        <v>obj_00363#0002</v>
+        <f>Futures!J41</f>
+        <v>obj_00357#0001</v>
       </c>
       <c r="F59" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E59),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU2_Quote</v>
+        <v>JPYFUT3MZ2_Quote</v>
       </c>
       <c r="G59" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E59,Trigger)</f>
@@ -7265,15 +7278,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D60" s="117" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E60" s="117" t="str">
-        <f>Futures!H42</f>
-        <v>obj_00350#0002</v>
+        <f>Futures!J42</f>
+        <v>obj_00350#0001</v>
       </c>
       <c r="F60" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E60),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ2_Quote</v>
+        <v>JPYFUT3MH3_Quote</v>
       </c>
       <c r="G60" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E60,Trigger)</f>
@@ -7312,15 +7325,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D61" s="117" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="E61" s="117" t="str">
-        <f>Futures!H43</f>
-        <v>obj_00378#0002</v>
+        <f>Futures!J43</f>
+        <v>obj_00365#0001</v>
       </c>
       <c r="F61" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E61),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH3_Quote</v>
+        <v>JPYFUT3MM3_Quote</v>
       </c>
       <c r="G61" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E61,Trigger)</f>
@@ -7359,15 +7372,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D62" s="122" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="E62" s="117" t="str">
-        <f>Futures!H44</f>
-        <v>obj_0035d#0002</v>
+        <f>Futures!J44</f>
+        <v>obj_00355#0001</v>
       </c>
       <c r="F62" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E62),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM3_Quote</v>
+        <v>JPYFUT3MU3_Quote</v>
       </c>
       <c r="G62" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E62,Trigger)</f>
@@ -7408,8 +7421,8 @@
         <v>36</v>
       </c>
       <c r="E63" s="117" t="str">
-        <f>Swaps!K5</f>
-        <v>obj_00339#0003</v>
+        <f>Swaps!L5</f>
+        <v>obj_00332#0001</v>
       </c>
       <c r="F63" s="133" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E63),"LastFixing","D"),"Libor","")</f>
@@ -7417,7 +7430,7 @@
       </c>
       <c r="G63" s="134">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>1.4499999999999999E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="H63" s="134">
         <f>_xll.qlSwapRateHelperSpread($E63,Trigger)</f>
@@ -7434,11 +7447,11 @@
       </c>
       <c r="L63" s="136">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M63" s="137">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>42398</v>
+        <v>42503</v>
       </c>
       <c r="O63" s="138"/>
     </row>
@@ -7454,8 +7467,8 @@
         <v>35</v>
       </c>
       <c r="E64" s="117" t="str">
-        <f>Swaps!K6</f>
-        <v>obj_0033e#0003</v>
+        <f>Swaps!L6</f>
+        <v>obj_00337#0001</v>
       </c>
       <c r="F64" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E64),"LastFixing","D"),"Libor","")</f>
@@ -7480,11 +7493,11 @@
       </c>
       <c r="L64" s="119">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M64" s="120">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>42489</v>
+        <v>42597</v>
       </c>
       <c r="O64" s="138"/>
     </row>
@@ -7500,8 +7513,8 @@
         <v>34</v>
       </c>
       <c r="E65" s="117" t="str">
-        <f>Swaps!K7</f>
-        <v>obj_0032c#0003</v>
+        <f>Swaps!L7</f>
+        <v>obj_0032f#0001</v>
       </c>
       <c r="F65" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E65),"LastFixing","D"),"Libor","")</f>
@@ -7509,7 +7522,7 @@
       </c>
       <c r="G65" s="118">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>1.4250000000000001E-3</v>
+        <v>1.4500000000000001E-3</v>
       </c>
       <c r="H65" s="118">
         <f>_xll.qlSwapRateHelperSpread($E65,Trigger)</f>
@@ -7526,11 +7539,11 @@
       </c>
       <c r="L65" s="119">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M65" s="120">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>42580</v>
+        <v>42688</v>
       </c>
       <c r="O65" s="138"/>
     </row>
@@ -7546,8 +7559,8 @@
         <v>33</v>
       </c>
       <c r="E66" s="117" t="str">
-        <f>Swaps!K8</f>
-        <v>obj_00338#0003</v>
+        <f>Swaps!L8</f>
+        <v>obj_00342#0001</v>
       </c>
       <c r="F66" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E66),"LastFixing","D"),"Libor","")</f>
@@ -7572,11 +7585,11 @@
       </c>
       <c r="L66" s="119">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M66" s="120">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>42674</v>
+        <v>42779</v>
       </c>
       <c r="O66" s="138"/>
     </row>
@@ -7592,8 +7605,8 @@
         <v>32</v>
       </c>
       <c r="E67" s="117" t="str">
-        <f>Swaps!K9</f>
-        <v>obj_00346#0003</v>
+        <f>Swaps!L9</f>
+        <v>obj_00335#0001</v>
       </c>
       <c r="F67" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E67),"LastFixing","D"),"Libor","")</f>
@@ -7601,7 +7614,7 @@
       </c>
       <c r="G67" s="118">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>1.4499999999999999E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="H67" s="118">
         <f>_xll.qlSwapRateHelperSpread($E67,Trigger)</f>
@@ -7618,11 +7631,11 @@
       </c>
       <c r="L67" s="119">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M67" s="120">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>42765</v>
+        <v>42870</v>
       </c>
       <c r="O67" s="138"/>
     </row>
@@ -7638,8 +7651,8 @@
         <v>31</v>
       </c>
       <c r="E68" s="117" t="str">
-        <f>Swaps!K10</f>
-        <v>obj_0032f#0003</v>
+        <f>Swaps!L10</f>
+        <v>obj_0032d#0001</v>
       </c>
       <c r="F68" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E68),"LastFixing","D"),"Libor","")</f>
@@ -7647,7 +7660,7 @@
       </c>
       <c r="G68" s="118">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>1.6250000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="H68" s="118">
         <f>_xll.qlSwapRateHelperSpread($E68,Trigger)</f>
@@ -7664,11 +7677,11 @@
       </c>
       <c r="L68" s="119">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M68" s="120">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>43130</v>
+        <v>43234</v>
       </c>
       <c r="O68" s="138"/>
     </row>
@@ -7684,8 +7697,8 @@
         <v>30</v>
       </c>
       <c r="E69" s="117" t="str">
-        <f>Swaps!K11</f>
-        <v>obj_00340#0003</v>
+        <f>Swaps!L11</f>
+        <v>obj_00349#0001</v>
       </c>
       <c r="F69" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E69),"LastFixing","D"),"Libor","")</f>
@@ -7693,7 +7706,7 @@
       </c>
       <c r="G69" s="118">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>1.9500000000000001E-3</v>
+        <v>2.225E-3</v>
       </c>
       <c r="H69" s="118">
         <f>_xll.qlSwapRateHelperSpread($E69,Trigger)</f>
@@ -7710,11 +7723,11 @@
       </c>
       <c r="L69" s="119">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M69" s="120">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>43495</v>
+        <v>43598</v>
       </c>
       <c r="O69" s="138"/>
     </row>
@@ -7730,8 +7743,8 @@
         <v>29</v>
       </c>
       <c r="E70" s="117" t="str">
-        <f>Swaps!K12</f>
-        <v>obj_0032e#0003</v>
+        <f>Swaps!L12</f>
+        <v>obj_00336#0001</v>
       </c>
       <c r="F70" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E70),"LastFixing","D"),"Libor","")</f>
@@ -7739,7 +7752,7 @@
       </c>
       <c r="G70" s="118">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>2.4000000000000002E-3</v>
+        <v>2.8249999999999998E-3</v>
       </c>
       <c r="H70" s="118">
         <f>_xll.qlSwapRateHelperSpread($E70,Trigger)</f>
@@ -7756,11 +7769,11 @@
       </c>
       <c r="L70" s="119">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M70" s="120">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>43860</v>
+        <v>43964</v>
       </c>
       <c r="O70" s="138"/>
     </row>
@@ -7776,8 +7789,8 @@
         <v>28</v>
       </c>
       <c r="E71" s="117" t="str">
-        <f>Swaps!K13</f>
-        <v>obj_0033f#0003</v>
+        <f>Swaps!L13</f>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="F71" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E71),"LastFixing","D"),"Libor","")</f>
@@ -7785,7 +7798,7 @@
       </c>
       <c r="G71" s="118">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>2.9000000000000002E-3</v>
+        <v>3.4750000000000002E-3</v>
       </c>
       <c r="H71" s="118">
         <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
@@ -7802,11 +7815,11 @@
       </c>
       <c r="L71" s="119">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M71" s="120">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>44225</v>
+        <v>44329</v>
       </c>
       <c r="O71" s="138"/>
     </row>
@@ -7822,8 +7835,8 @@
         <v>27</v>
       </c>
       <c r="E72" s="117" t="str">
-        <f>Swaps!K14</f>
-        <v>obj_00331#0003</v>
+        <f>Swaps!L14</f>
+        <v>obj_0033c#0001</v>
       </c>
       <c r="F72" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E72),"LastFixing","D"),"Libor","")</f>
@@ -7831,7 +7844,7 @@
       </c>
       <c r="G72" s="118">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>3.4250000000000001E-3</v>
+        <v>4.1749999999999999E-3</v>
       </c>
       <c r="H72" s="118">
         <f>_xll.qlSwapRateHelperSpread($E72,Trigger)</f>
@@ -7848,11 +7861,11 @@
       </c>
       <c r="L72" s="119">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M72" s="120">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>44592</v>
+        <v>44694</v>
       </c>
       <c r="O72" s="138"/>
     </row>
@@ -7868,8 +7881,8 @@
         <v>26</v>
       </c>
       <c r="E73" s="117" t="str">
-        <f>Swaps!K15</f>
-        <v>obj_0034c#0003</v>
+        <f>Swaps!L15</f>
+        <v>obj_00331#0001</v>
       </c>
       <c r="F73" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E73),"LastFixing","D"),"Libor","")</f>
@@ -7877,7 +7890,7 @@
       </c>
       <c r="G73" s="118">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>3.9750000000000002E-3</v>
+        <v>4.8250000000000003E-3</v>
       </c>
       <c r="H73" s="118">
         <f>_xll.qlSwapRateHelperSpread($E73,Trigger)</f>
@@ -7894,11 +7907,11 @@
       </c>
       <c r="L73" s="119">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M73" s="120">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>44956</v>
+        <v>45061</v>
       </c>
       <c r="O73" s="138"/>
     </row>
@@ -7914,8 +7927,8 @@
         <v>25</v>
       </c>
       <c r="E74" s="117" t="str">
-        <f>Swaps!K16</f>
-        <v>obj_00334#0003</v>
+        <f>Swaps!L16</f>
+        <v>obj_00347#0001</v>
       </c>
       <c r="F74" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E74),"LastFixing","D"),"Libor","")</f>
@@ -7923,7 +7936,7 @@
       </c>
       <c r="G74" s="118">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>4.5250000000000004E-3</v>
+        <v>5.45E-3</v>
       </c>
       <c r="H74" s="118">
         <f>_xll.qlSwapRateHelperSpread($E74,Trigger)</f>
@@ -7940,11 +7953,11 @@
       </c>
       <c r="L74" s="119">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M74" s="120">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>45321</v>
+        <v>45425</v>
       </c>
       <c r="O74" s="138"/>
     </row>
@@ -7960,8 +7973,8 @@
         <v>24</v>
       </c>
       <c r="E75" s="117" t="str">
-        <f>Swaps!K17</f>
-        <v>obj_00341#0003</v>
+        <f>Swaps!L17</f>
+        <v>obj_00339#0001</v>
       </c>
       <c r="F75" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E75),"LastFixing","D"),"Libor","")</f>
@@ -7969,7 +7982,7 @@
       </c>
       <c r="G75" s="118">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>5.1000000000000004E-3</v>
+        <v>6.1250000000000002E-3</v>
       </c>
       <c r="H75" s="118">
         <f>_xll.qlSwapRateHelperSpread($E75,Trigger)</f>
@@ -7986,11 +7999,11 @@
       </c>
       <c r="L75" s="119">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M75" s="120">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>45687</v>
+        <v>45790</v>
       </c>
       <c r="O75" s="138"/>
     </row>
@@ -8006,8 +8019,8 @@
         <v>23</v>
       </c>
       <c r="E76" s="117" t="str">
-        <f>Swaps!K18</f>
-        <v>obj_0032a#0003</v>
+        <f>Swaps!L18</f>
+        <v>obj_0033a#0001</v>
       </c>
       <c r="F76" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E76),"LastFixing","D"),"Libor","")</f>
@@ -8032,11 +8045,11 @@
       </c>
       <c r="L76" s="119">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M76" s="120">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>46052</v>
+        <v>46155</v>
       </c>
       <c r="O76" s="138"/>
     </row>
@@ -8052,8 +8065,8 @@
         <v>22</v>
       </c>
       <c r="E77" s="117" t="str">
-        <f>Swaps!K19</f>
-        <v>obj_0033b#0003</v>
+        <f>Swaps!L19</f>
+        <v>obj_0032e#0001</v>
       </c>
       <c r="F77" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E77),"LastFixing","D"),"Libor","")</f>
@@ -8061,7 +8074,7 @@
       </c>
       <c r="G77" s="118">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>6.3000000000000009E-3</v>
+        <v>7.4500000000000009E-3</v>
       </c>
       <c r="H77" s="118">
         <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
@@ -8078,11 +8091,11 @@
       </c>
       <c r="L77" s="119">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M77" s="120">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>46416</v>
+        <v>46520</v>
       </c>
       <c r="O77" s="138"/>
     </row>
@@ -8098,8 +8111,8 @@
         <v>21</v>
       </c>
       <c r="E78" s="117" t="str">
-        <f>Swaps!K20</f>
-        <v>obj_00329#0003</v>
+        <f>Swaps!L20</f>
+        <v>obj_0033b#0001</v>
       </c>
       <c r="F78" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E78),"LastFixing","D"),"Libor","")</f>
@@ -8124,11 +8137,11 @@
       </c>
       <c r="L78" s="119">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M78" s="120">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>46783</v>
+        <v>46888</v>
       </c>
       <c r="O78" s="138"/>
     </row>
@@ -8144,8 +8157,8 @@
         <v>20</v>
       </c>
       <c r="E79" s="117" t="str">
-        <f>Swaps!K21</f>
-        <v>obj_0033a#0003</v>
+        <f>Swaps!L21</f>
+        <v>obj_00329#0001</v>
       </c>
       <c r="F79" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E79),"LastFixing","D"),"Libor","")</f>
@@ -8170,11 +8183,11 @@
       </c>
       <c r="L79" s="119">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M79" s="120">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>47148</v>
+        <v>47252</v>
       </c>
       <c r="O79" s="138"/>
     </row>
@@ -8190,8 +8203,8 @@
         <v>19</v>
       </c>
       <c r="E80" s="117" t="str">
-        <f>Swaps!K22</f>
-        <v>obj_0032d#0003</v>
+        <f>Swaps!L22</f>
+        <v>obj_00341#0001</v>
       </c>
       <c r="F80" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E80),"LastFixing","D"),"Libor","")</f>
@@ -8199,7 +8212,7 @@
       </c>
       <c r="G80" s="118">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>8.2500000000000004E-3</v>
+        <v>9.4750000000000008E-3</v>
       </c>
       <c r="H80" s="118">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -8216,11 +8229,11 @@
       </c>
       <c r="L80" s="119">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M80" s="120">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>47513</v>
+        <v>47616</v>
       </c>
       <c r="O80" s="138"/>
     </row>
@@ -8236,8 +8249,8 @@
         <v>18</v>
       </c>
       <c r="E81" s="117" t="str">
-        <f>Swaps!K23</f>
-        <v>obj_00347#0003</v>
+        <f>Swaps!L23</f>
+        <v>obj_00334#0001</v>
       </c>
       <c r="F81" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E81),"LastFixing","D"),"Libor","")</f>
@@ -8262,11 +8275,11 @@
       </c>
       <c r="L81" s="119">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M81" s="120">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>47878</v>
+        <v>47981</v>
       </c>
       <c r="O81" s="138"/>
     </row>
@@ -8282,8 +8295,8 @@
         <v>17</v>
       </c>
       <c r="E82" s="117" t="str">
-        <f>Swaps!K24</f>
-        <v>obj_00330#0003</v>
+        <f>Swaps!L24</f>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="F82" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E82),"LastFixing","D"),"Libor","")</f>
@@ -8308,11 +8321,11 @@
       </c>
       <c r="L82" s="119">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M82" s="120">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>48243</v>
+        <v>48347</v>
       </c>
       <c r="O82" s="138"/>
     </row>
@@ -8328,8 +8341,8 @@
         <v>16</v>
       </c>
       <c r="E83" s="117" t="str">
-        <f>Swaps!K25</f>
-        <v>obj_0033c#0003</v>
+        <f>Swaps!L25</f>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="F83" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E83),"LastFixing","D"),"Libor","")</f>
@@ -8354,11 +8367,11 @@
       </c>
       <c r="L83" s="119">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M83" s="120">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>48610</v>
+        <v>48712</v>
       </c>
       <c r="O83" s="138"/>
     </row>
@@ -8374,8 +8387,8 @@
         <v>15</v>
       </c>
       <c r="E84" s="117" t="str">
-        <f>Swaps!K26</f>
-        <v>obj_0034a#0003</v>
+        <f>Swaps!L26</f>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="F84" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E84),"LastFixing","D"),"Libor","")</f>
@@ -8400,11 +8413,11 @@
       </c>
       <c r="L84" s="119">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M84" s="120">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>48974</v>
+        <v>49079</v>
       </c>
       <c r="O84" s="138"/>
     </row>
@@ -8420,8 +8433,8 @@
         <v>14</v>
       </c>
       <c r="E85" s="117" t="str">
-        <f>Swaps!K27</f>
-        <v>obj_00336#0003</v>
+        <f>Swaps!L27</f>
+        <v>obj_00330#0001</v>
       </c>
       <c r="F85" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E85),"LastFixing","D"),"Libor","")</f>
@@ -8429,7 +8442,7 @@
       </c>
       <c r="G85" s="118">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>1.0874999999999999E-2</v>
+        <v>1.2075000000000001E-2</v>
       </c>
       <c r="H85" s="118">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -8446,11 +8459,11 @@
       </c>
       <c r="L85" s="119">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M85" s="120">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>49339</v>
+        <v>49443</v>
       </c>
       <c r="O85" s="138"/>
     </row>
@@ -8466,8 +8479,8 @@
         <v>13</v>
       </c>
       <c r="E86" s="117" t="str">
-        <f>Swaps!K28</f>
-        <v>obj_00349#0003</v>
+        <f>Swaps!L28</f>
+        <v>obj_00340#0001</v>
       </c>
       <c r="F86" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E86),"LastFixing","D"),"Libor","")</f>
@@ -8492,11 +8505,11 @@
       </c>
       <c r="L86" s="119">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M86" s="120">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>49704</v>
+        <v>49808</v>
       </c>
       <c r="O86" s="138"/>
     </row>
@@ -8512,8 +8525,8 @@
         <v>12</v>
       </c>
       <c r="E87" s="117" t="str">
-        <f>Swaps!K29</f>
-        <v>obj_00335#0003</v>
+        <f>Swaps!L29</f>
+        <v>obj_0032a#0001</v>
       </c>
       <c r="F87" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E87),"LastFixing","D"),"Libor","")</f>
@@ -8538,11 +8551,11 @@
       </c>
       <c r="L87" s="119">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M87" s="120">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>50070</v>
+        <v>50173</v>
       </c>
       <c r="O87" s="138"/>
     </row>
@@ -8558,8 +8571,8 @@
         <v>11</v>
       </c>
       <c r="E88" s="117" t="str">
-        <f>Swaps!K30</f>
-        <v>obj_00328#0003</v>
+        <f>Swaps!L30</f>
+        <v>obj_00346#0001</v>
       </c>
       <c r="F88" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E88),"LastFixing","D"),"Libor","")</f>
@@ -8584,11 +8597,11 @@
       </c>
       <c r="L88" s="119">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M88" s="120">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>50434</v>
+        <v>50538</v>
       </c>
       <c r="O88" s="138"/>
     </row>
@@ -8604,8 +8617,8 @@
         <v>10</v>
       </c>
       <c r="E89" s="117" t="str">
-        <f>Swaps!K31</f>
-        <v>obj_00342#0003</v>
+        <f>Swaps!L31</f>
+        <v>obj_00338#0001</v>
       </c>
       <c r="F89" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E89),"LastFixing","D"),"Libor","")</f>
@@ -8630,11 +8643,11 @@
       </c>
       <c r="L89" s="119">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M89" s="120">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>50801</v>
+        <v>50903</v>
       </c>
       <c r="O89" s="138"/>
     </row>
@@ -8650,8 +8663,8 @@
         <v>9</v>
       </c>
       <c r="E90" s="117" t="str">
-        <f>Swaps!K32</f>
-        <v>obj_0032b#0003</v>
+        <f>Swaps!L32</f>
+        <v>obj_00328#0001</v>
       </c>
       <c r="F90" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E90),"LastFixing","D"),"Libor","")</f>
@@ -8659,7 +8672,7 @@
       </c>
       <c r="G90" s="118">
         <f>_xll.qlRateHelperQuoteValue($E90,Trigger)</f>
-        <v>1.2275000000000001E-2</v>
+        <v>1.3525000000000001E-2</v>
       </c>
       <c r="H90" s="118">
         <f>_xll.qlSwapRateHelperSpread($E90,Trigger)</f>
@@ -8676,11 +8689,11 @@
       </c>
       <c r="L90" s="119">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M90" s="120">
         <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>51165</v>
+        <v>51270</v>
       </c>
     </row>
     <row r="91" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8695,8 +8708,8 @@
         <v>8</v>
       </c>
       <c r="E91" s="117" t="str">
-        <f>Swaps!K33</f>
-        <v>obj_00337#0003</v>
+        <f>Swaps!L33</f>
+        <v>obj_00343#0001</v>
       </c>
       <c r="F91" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E91),"LastFixing","D"),"Libor","")</f>
@@ -8721,11 +8734,11 @@
       </c>
       <c r="L91" s="119">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M91" s="120">
         <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>51531</v>
+        <v>51634</v>
       </c>
     </row>
     <row r="92" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8740,8 +8753,8 @@
         <v>7</v>
       </c>
       <c r="E92" s="117" t="str">
-        <f>Swaps!K34</f>
-        <v>obj_00345#0003</v>
+        <f>Swaps!L34</f>
+        <v>obj_00344#0001</v>
       </c>
       <c r="F92" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E92),"LastFixing","D"),"Libor","")</f>
@@ -8766,11 +8779,11 @@
       </c>
       <c r="L92" s="119">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M92" s="120">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>51896</v>
+        <v>51999</v>
       </c>
     </row>
     <row r="93" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8785,8 +8798,8 @@
         <v>6</v>
       </c>
       <c r="E93" s="117" t="str">
-        <f>Swaps!K35</f>
-        <v>obj_00332#0003</v>
+        <f>Swaps!L35</f>
+        <v>obj_0032c#0001</v>
       </c>
       <c r="F93" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E93),"LastFixing","D"),"Libor","")</f>
@@ -8811,11 +8824,11 @@
       </c>
       <c r="L93" s="119">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M93" s="120">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>52261</v>
+        <v>52364</v>
       </c>
     </row>
     <row r="94" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8830,8 +8843,8 @@
         <v>5</v>
       </c>
       <c r="E94" s="117" t="str">
-        <f>Swaps!K36</f>
-        <v>obj_00344#0003</v>
+        <f>Swaps!L36</f>
+        <v>obj_00345#0001</v>
       </c>
       <c r="F94" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E94),"LastFixing","D"),"Libor","")</f>
@@ -8856,11 +8869,11 @@
       </c>
       <c r="L94" s="119">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M94" s="120">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>52625</v>
+        <v>52730</v>
       </c>
     </row>
     <row r="95" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8875,8 +8888,8 @@
         <v>4</v>
       </c>
       <c r="E95" s="117" t="str">
-        <f>Swaps!K37</f>
-        <v>obj_00343#0003</v>
+        <f>Swaps!L37</f>
+        <v>obj_00333#0001</v>
       </c>
       <c r="F95" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E95),"LastFixing","D"),"Libor","")</f>
@@ -8884,7 +8897,7 @@
       </c>
       <c r="G95" s="118">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>1.2999999999999998E-2</v>
+        <v>1.4300000000000002E-2</v>
       </c>
       <c r="H95" s="118">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -8901,11 +8914,11 @@
       </c>
       <c r="L95" s="119">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M95" s="120">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>52992</v>
+        <v>53097</v>
       </c>
     </row>
     <row r="96" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8920,8 +8933,8 @@
         <v>3</v>
       </c>
       <c r="E96" s="117" t="str">
-        <f>Swaps!K38</f>
-        <v>obj_00348#0003</v>
+        <f>Swaps!L38</f>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="F96" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E96),"LastFixing","D"),"Libor","")</f>
@@ -8946,11 +8959,11 @@
       </c>
       <c r="L96" s="119">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M96" s="120">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>54819</v>
+        <v>54921</v>
       </c>
     </row>
     <row r="97" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8965,8 +8978,8 @@
         <v>2</v>
       </c>
       <c r="E97" s="117" t="str">
-        <f>Swaps!K39</f>
-        <v>obj_0033d#0003</v>
+        <f>Swaps!L39</f>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="F97" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E97),"LastFixing","D"),"Libor","")</f>
@@ -8991,11 +9004,11 @@
       </c>
       <c r="L97" s="119">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M97" s="120">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>56643</v>
+        <v>56747</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9010,8 +9023,8 @@
         <v>1</v>
       </c>
       <c r="E98" s="117" t="str">
-        <f>Swaps!K40</f>
-        <v>obj_0034b#0003</v>
+        <f>Swaps!L40</f>
+        <v>obj_0032b#0001</v>
       </c>
       <c r="F98" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E98),"LastFixing","D"),"Libor","")</f>
@@ -9036,11 +9049,11 @@
       </c>
       <c r="L98" s="119">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M98" s="120">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>60297</v>
+        <v>60400</v>
       </c>
     </row>
     <row r="99" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9055,8 +9068,8 @@
         <v>0</v>
       </c>
       <c r="E99" s="117" t="str">
-        <f>Swaps!K41</f>
-        <v>obj_00333#0003</v>
+        <f>Swaps!L41</f>
+        <v>obj_00348#0001</v>
       </c>
       <c r="F99" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E99),"LastFixing","D"),"Libor","")</f>
@@ -9081,17 +9094,17 @@
       </c>
       <c r="L99" s="125">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="M99" s="126">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>63949</v>
+        <v>64052</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E100" s="186"/>
-      <c r="F100" s="186"/>
-      <c r="G100" s="186"/>
+      <c r="E100" s="185"/>
+      <c r="F100" s="185"/>
+      <c r="G100" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9128,11 +9141,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="207" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="D1" s="185" t="s">
+      <c r="B1" s="208"/>
+      <c r="D1" s="184" t="s">
         <v>57</v>
       </c>
       <c r="E1" s="72" t="s">
@@ -9150,19 +9163,19 @@
       </c>
       <c r="J1" s="75">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>4.1275253303319951E-4</v>
+        <v>4.6344655155437602E-4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="192">
+      <c r="B2" s="191">
         <v>0</v>
       </c>
       <c r="D2" s="76" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00319</v>
+        <v>obj_0031c</v>
       </c>
       <c r="E2" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
@@ -9170,7 +9183,7 @@
       </c>
       <c r="F2" s="77">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>4.0709999999999997E-4</v>
+        <v>4.571E-4</v>
       </c>
       <c r="G2" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9178,14 +9191,14 @@
       </c>
       <c r="H2" s="86">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I2" s="87">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>42041</v>
+        <v>42144</v>
       </c>
       <c r="J2" s="75">
-        <v>4.1275253303319951E-4</v>
+        <v>4.6344655155437602E-4</v>
       </c>
       <c r="K2" s="78"/>
     </row>
@@ -9197,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="76" t="str">
-        <v>obj_00327</v>
+        <v>obj_00315</v>
       </c>
       <c r="E3" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
@@ -9205,7 +9218,7 @@
       </c>
       <c r="F3" s="77">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>7.1429999999999996E-4</v>
+        <v>6.8570000000000002E-4</v>
       </c>
       <c r="G3" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9213,14 +9226,14 @@
       </c>
       <c r="H3" s="86">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I3" s="87">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42062</v>
+        <v>42170</v>
       </c>
       <c r="J3" s="75">
-        <v>7.0343750420393306E-4</v>
+        <v>6.8195860768109672E-4</v>
       </c>
       <c r="K3" s="78"/>
     </row>
@@ -9232,7 +9245,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="76" t="str">
-        <v>obj_00320</v>
+        <v>obj_0031a</v>
       </c>
       <c r="E4" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
@@ -9240,7 +9253,7 @@
       </c>
       <c r="F4" s="77">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>9.0709999999999999E-4</v>
+        <v>8.7140000000000004E-4</v>
       </c>
       <c r="G4" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9248,14 +9261,14 @@
       </c>
       <c r="H4" s="86">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I4" s="87">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42094</v>
+        <v>42198</v>
       </c>
       <c r="J4" s="75">
-        <v>9.0327823967882961E-4</v>
+        <v>8.7010451006673832E-4</v>
       </c>
       <c r="K4" s="78"/>
     </row>
@@ -9267,7 +9280,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="76" t="str">
-        <v>obj_0031d</v>
+        <v>obj_0031f</v>
       </c>
       <c r="E5" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
@@ -9275,7 +9288,7 @@
       </c>
       <c r="F5" s="77">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1.0214E-3</v>
+        <v>1.0070999999999999E-3</v>
       </c>
       <c r="G5" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9283,19 +9296,19 @@
       </c>
       <c r="H5" s="86">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I5" s="87">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42124</v>
+        <v>42229</v>
       </c>
       <c r="J5" s="75">
-        <v>1.0219169285902441E-3</v>
+        <v>1.0090942181017733E-3</v>
       </c>
       <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="193" t="s">
+      <c r="A6" s="192" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="82" t="str">
@@ -9303,7 +9316,7 @@
         <v/>
       </c>
       <c r="D6" s="76" t="str">
-        <v>obj_00324</v>
+        <v>obj_0031b</v>
       </c>
       <c r="E6" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
@@ -9311,7 +9324,7 @@
       </c>
       <c r="F6" s="77">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.4357E-3</v>
+        <v>1.3786E-3</v>
       </c>
       <c r="G6" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9319,20 +9332,20 @@
       </c>
       <c r="H6" s="86">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I6" s="87">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42216</v>
+        <v>42321</v>
       </c>
       <c r="J6" s="75">
-        <v>1.4437822653410373E-3</v>
+        <v>1.3872140634339448E-3</v>
       </c>
       <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" s="76" t="str">
-        <v>obj_00339</v>
+        <v>obj_00332</v>
       </c>
       <c r="E7" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
@@ -9340,7 +9353,7 @@
       </c>
       <c r="F7" s="77">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.4499999999999999E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="G7" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9348,20 +9361,20 @@
       </c>
       <c r="H7" s="86">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I7" s="87">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42398</v>
+        <v>42503</v>
       </c>
       <c r="J7" s="75">
-        <v>1.441545667596451E-3</v>
+        <v>1.3944223718530713E-3</v>
       </c>
       <c r="K7" s="78"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="76" t="str">
-        <v>obj_0032c</v>
+        <v>obj_0032f</v>
       </c>
       <c r="E8" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
@@ -9369,7 +9382,7 @@
       </c>
       <c r="F8" s="77">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1.4250000000000001E-3</v>
+        <v>1.4500000000000001E-3</v>
       </c>
       <c r="G8" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9377,20 +9390,20 @@
       </c>
       <c r="H8" s="86">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I8" s="87">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42580</v>
+        <v>42688</v>
       </c>
       <c r="J8" s="75">
-        <v>1.4192709018787935E-3</v>
+        <v>1.4459417727411363E-3</v>
       </c>
       <c r="K8" s="78"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="76" t="str">
-        <v>obj_0032f</v>
+        <v>obj_0032d</v>
       </c>
       <c r="E9" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
@@ -9398,7 +9411,7 @@
       </c>
       <c r="F9" s="77">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>1.6250000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="G9" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9406,20 +9419,20 @@
       </c>
       <c r="H9" s="86">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I9" s="87">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>43130</v>
+        <v>43234</v>
       </c>
       <c r="J9" s="75">
-        <v>1.6216466863902467E-3</v>
+        <v>1.7973261684684206E-3</v>
       </c>
       <c r="K9" s="78"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="76" t="str">
-        <v>obj_00340</v>
+        <v>obj_00349</v>
       </c>
       <c r="E10" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
@@ -9427,7 +9440,7 @@
       </c>
       <c r="F10" s="77">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>1.9500000000000001E-3</v>
+        <v>2.225E-3</v>
       </c>
       <c r="G10" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9435,20 +9448,20 @@
       </c>
       <c r="H10" s="86">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I10" s="87">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>43495</v>
+        <v>43598</v>
       </c>
       <c r="J10" s="75">
-        <v>1.9475960365556522E-3</v>
+        <v>2.2233356576761608E-3</v>
       </c>
       <c r="K10" s="78"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="76" t="str">
-        <v>obj_0032e</v>
+        <v>obj_00336</v>
       </c>
       <c r="E11" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
@@ -9456,7 +9469,7 @@
       </c>
       <c r="F11" s="77">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.4000000000000002E-3</v>
+        <v>2.8249999999999998E-3</v>
       </c>
       <c r="G11" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9464,20 +9477,20 @@
       </c>
       <c r="H11" s="86">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I11" s="87">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>43860</v>
+        <v>43964</v>
       </c>
       <c r="J11" s="75">
-        <v>2.3993233482298743E-3</v>
+        <v>2.8258814743172826E-3</v>
       </c>
       <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="76" t="str">
-        <v>obj_0033f</v>
+        <v>obj_0034a</v>
       </c>
       <c r="E12" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
@@ -9485,7 +9498,7 @@
       </c>
       <c r="F12" s="77">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.9000000000000002E-3</v>
+        <v>3.4750000000000002E-3</v>
       </c>
       <c r="G12" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9493,20 +9506,20 @@
       </c>
       <c r="H12" s="86">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I12" s="87">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>44225</v>
+        <v>44329</v>
       </c>
       <c r="J12" s="75">
-        <v>2.9023458534390843E-3</v>
+        <v>3.4805793646068457E-3</v>
       </c>
       <c r="K12" s="78"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="76" t="str">
-        <v>obj_00331</v>
+        <v>obj_0033c</v>
       </c>
       <c r="E13" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
@@ -9514,7 +9527,7 @@
       </c>
       <c r="F13" s="77">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>3.4250000000000001E-3</v>
+        <v>4.1749999999999999E-3</v>
       </c>
       <c r="G13" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9522,20 +9535,20 @@
       </c>
       <c r="H13" s="86">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I13" s="87">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>44592</v>
+        <v>44694</v>
       </c>
       <c r="J13" s="75">
-        <v>3.4320470500170445E-3</v>
+        <v>4.1883696694039506E-3</v>
       </c>
       <c r="K13" s="78"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D14" s="76" t="str">
-        <v>obj_0034c</v>
+        <v>obj_00331</v>
       </c>
       <c r="E14" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
@@ -9543,7 +9556,7 @@
       </c>
       <c r="F14" s="77">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>3.9750000000000002E-3</v>
+        <v>4.8250000000000003E-3</v>
       </c>
       <c r="G14" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9551,20 +9564,20 @@
       </c>
       <c r="H14" s="86">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I14" s="87">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>44956</v>
+        <v>45061</v>
       </c>
       <c r="J14" s="75">
-        <v>3.9890017103214005E-3</v>
+        <v>4.848285804512271E-3</v>
       </c>
       <c r="K14" s="78"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D15" s="76" t="str">
-        <v>obj_00334</v>
+        <v>obj_00347</v>
       </c>
       <c r="E15" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
@@ -9572,7 +9585,7 @@
       </c>
       <c r="F15" s="77">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>4.5250000000000004E-3</v>
+        <v>5.45E-3</v>
       </c>
       <c r="G15" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9580,20 +9593,20 @@
       </c>
       <c r="H15" s="86">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I15" s="87">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>45321</v>
+        <v>45425</v>
       </c>
       <c r="J15" s="75">
-        <v>4.5482512473312585E-3</v>
+        <v>5.4858227022552847E-3</v>
       </c>
       <c r="K15" s="78"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="76" t="str">
-        <v>obj_00341</v>
+        <v>obj_00339</v>
       </c>
       <c r="E16" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
@@ -9601,7 +9614,7 @@
       </c>
       <c r="F16" s="77">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>5.1000000000000004E-3</v>
+        <v>6.1250000000000002E-3</v>
       </c>
       <c r="G16" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -9609,19 +9622,19 @@
       </c>
       <c r="H16" s="86">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I16" s="87">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>45687</v>
+        <v>45790</v>
       </c>
       <c r="J16" s="75">
-        <v>5.1358687247593186E-3</v>
+        <v>6.1786368880252015E-3</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="76" t="str">
-        <v>obj_0033b</v>
+        <v>obj_0032e</v>
       </c>
       <c r="E17" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
@@ -9629,7 +9642,7 @@
       </c>
       <c r="F17" s="77">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>6.3000000000000009E-3</v>
+        <v>7.4500000000000009E-3</v>
       </c>
       <c r="G17" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -9637,19 +9650,19 @@
       </c>
       <c r="H17" s="86">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I17" s="87">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>46416</v>
+        <v>46520</v>
       </c>
       <c r="J17" s="75">
-        <v>6.3734563905402022E-3</v>
+        <v>7.5522442443124605E-3</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="76" t="str">
-        <v>obj_0032d</v>
+        <v>obj_00341</v>
       </c>
       <c r="E18" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
@@ -9657,7 +9670,7 @@
       </c>
       <c r="F18" s="77">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>8.2500000000000004E-3</v>
+        <v>9.4750000000000008E-3</v>
       </c>
       <c r="G18" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -9665,19 +9678,19 @@
       </c>
       <c r="H18" s="86">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I18" s="87">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>47513</v>
+        <v>47616</v>
       </c>
       <c r="J18" s="75">
-        <v>8.424998637115131E-3</v>
+        <v>9.6967225932396567E-3</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="76" t="str">
-        <v>obj_00336</v>
+        <v>obj_00330</v>
       </c>
       <c r="E19" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
@@ -9685,7 +9698,7 @@
       </c>
       <c r="F19" s="77">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.0874999999999999E-2</v>
+        <v>1.2075000000000001E-2</v>
       </c>
       <c r="G19" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -9693,19 +9706,19 @@
       </c>
       <c r="H19" s="86">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I19" s="87">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>49339</v>
+        <v>49443</v>
       </c>
       <c r="J19" s="75">
-        <v>1.1281939014637988E-2</v>
+        <v>1.2546101411583289E-2</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="76" t="str">
-        <v>obj_0032b</v>
+        <v>obj_00328</v>
       </c>
       <c r="E20" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
@@ -9713,7 +9726,7 @@
       </c>
       <c r="F20" s="77">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.2275000000000001E-2</v>
+        <v>1.3525000000000001E-2</v>
       </c>
       <c r="G20" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -9721,19 +9734,19 @@
       </c>
       <c r="H20" s="86">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I20" s="87">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>51165</v>
+        <v>51270</v>
       </c>
       <c r="J20" s="75">
-        <v>1.2838816402852856E-2</v>
+        <v>1.417382518134426E-2</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="76" t="str">
-        <v>obj_00343</v>
+        <v>obj_00333</v>
       </c>
       <c r="E21" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
@@ -9741,7 +9754,7 @@
       </c>
       <c r="F21" s="77">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.2999999999999998E-2</v>
+        <v>1.4300000000000002E-2</v>
       </c>
       <c r="G21" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -9749,14 +9762,14 @@
       </c>
       <c r="H21" s="86">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42034</v>
+        <v>42137</v>
       </c>
       <c r="I21" s="87">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>52992</v>
+        <v>53097</v>
       </c>
       <c r="J21" s="75">
-        <v>1.3636110672599748E-2</v>
+        <v>1.5037418321779013E-2</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.2">
@@ -12721,7 +12734,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -12787,7 +12800,7 @@
       </c>
       <c r="E3" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034e#0002</v>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="F3" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -12802,7 +12815,7 @@
       </c>
       <c r="C4" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00316#0002</v>
+        <v>obj_00317#0001</v>
       </c>
       <c r="D4" s="52" t="str">
         <f t="shared" ref="D4:D19" si="0">PROPER(Currency)&amp;FamilyName&amp;$B4&amp;"LastFixing"&amp;QuoteSuffix</f>
@@ -12810,7 +12823,7 @@
       </c>
       <c r="E4" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034d#0002</v>
+        <v>obj_0034e#0001</v>
       </c>
       <c r="F4" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -12825,7 +12838,7 @@
       </c>
       <c r="C5" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00310#0002</v>
+        <v>obj_00310#0001</v>
       </c>
       <c r="D5" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12833,7 +12846,7 @@
       </c>
       <c r="E5" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00319#0002</v>
+        <v>obj_0031c#0001</v>
       </c>
       <c r="F5" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -12848,7 +12861,7 @@
       </c>
       <c r="C6" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00314#0002</v>
+        <v>obj_00311#0001</v>
       </c>
       <c r="D6" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12868,7 +12881,7 @@
       </c>
       <c r="C7" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00312#0002</v>
+        <v>obj_00309#0001</v>
       </c>
       <c r="D7" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12888,7 +12901,7 @@
       </c>
       <c r="C8" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030f#0002</v>
+        <v>obj_0030c#0001</v>
       </c>
       <c r="D8" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12896,7 +12909,7 @@
       </c>
       <c r="E8" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00327#0002</v>
+        <v>obj_00315#0001</v>
       </c>
       <c r="F8" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -12911,7 +12924,7 @@
       </c>
       <c r="C9" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B9,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00308#0002</v>
+        <v>obj_0030e#0001</v>
       </c>
       <c r="D9" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12919,7 +12932,7 @@
       </c>
       <c r="E9" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00320#0002</v>
+        <v>obj_0031a#0001</v>
       </c>
       <c r="F9" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -12934,7 +12947,7 @@
       </c>
       <c r="C10" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B10,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030c#0002</v>
+        <v>obj_0030f#0001</v>
       </c>
       <c r="D10" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12942,7 +12955,7 @@
       </c>
       <c r="E10" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031d#0002</v>
+        <v>obj_0031f#0001</v>
       </c>
       <c r="F10" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -12957,7 +12970,7 @@
       </c>
       <c r="C11" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B11,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030d#0002</v>
+        <v>obj_00313#0001</v>
       </c>
       <c r="D11" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12977,7 +12990,7 @@
       </c>
       <c r="C12" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030b#0002</v>
+        <v>obj_0030b#0001</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12997,7 +13010,7 @@
       </c>
       <c r="C13" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00306#0002</v>
+        <v>obj_00306#0001</v>
       </c>
       <c r="D13" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13005,7 +13018,7 @@
       </c>
       <c r="E13" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00324#0002</v>
+        <v>obj_0031b#0001</v>
       </c>
       <c r="F13" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -13020,7 +13033,7 @@
       </c>
       <c r="C14" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B14,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00311#0002</v>
+        <v>obj_00314#0001</v>
       </c>
       <c r="D14" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13040,7 +13053,7 @@
       </c>
       <c r="C15" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030a#0002</v>
+        <v>obj_00307#0001</v>
       </c>
       <c r="D15" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13060,7 +13073,7 @@
       </c>
       <c r="C16" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00307#0002</v>
+        <v>obj_0030a#0001</v>
       </c>
       <c r="D16" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13080,7 +13093,7 @@
       </c>
       <c r="C17" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030e#0002</v>
+        <v>obj_00308#0001</v>
       </c>
       <c r="D17" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13100,7 +13113,7 @@
       </c>
       <c r="C18" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00309#0002</v>
+        <v>obj_00312#0001</v>
       </c>
       <c r="D18" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13120,7 +13133,7 @@
       </c>
       <c r="C19" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00313#0002</v>
+        <v>obj_0030d#0001</v>
       </c>
       <c r="D19" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13128,7 +13141,7 @@
       </c>
       <c r="E19" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D19,C19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00315#0002</v>
+        <v>obj_0031d#0001</v>
       </c>
       <c r="F19" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -13157,7 +13170,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13217,30 +13232,30 @@
     </row>
     <row r="3" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
-      <c r="B3" s="187" t="str">
+      <c r="B3" s="186" t="str">
         <f>C3&amp;"M"</f>
         <v>1M</v>
       </c>
-      <c r="C3" s="190">
-        <v>1</v>
-      </c>
-      <c r="D3" s="189" t="str">
+      <c r="C3" s="189">
+        <v>1</v>
+      </c>
+      <c r="D3" s="188" t="str">
         <f>"x"&amp;C3+$D$1&amp;"F"</f>
         <v>x4F</v>
       </c>
-      <c r="E3" s="187" t="str">
+      <c r="E3" s="186" t="str">
         <f t="shared" ref="E3:E13" si="0">PROPER(Currency)&amp;FamilyName&amp;"3M"</f>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F3" s="187" t="str">
+      <c r="F3" s="186" t="str">
         <f t="shared" ref="F3:F13" si="1">Currency&amp;C3&amp;D3&amp;"_Quote"</f>
         <v>JPY1x4F_Quote</v>
       </c>
-      <c r="G3" s="187" t="str">
+      <c r="G3" s="186" t="str">
         <f>_xll.qlFraRateHelper(,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00323#0002</v>
-      </c>
-      <c r="H3" s="188" t="str">
+        <v>obj_00316#0001</v>
+      </c>
+      <c r="H3" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G3)</f>
         <v/>
       </c>
@@ -13248,30 +13263,30 @@
     </row>
     <row r="4" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55"/>
-      <c r="B4" s="187" t="str">
+      <c r="B4" s="186" t="str">
         <f t="shared" ref="B4:B13" si="2">C4&amp;"M"</f>
         <v>2M</v>
       </c>
-      <c r="C4" s="190">
+      <c r="C4" s="189">
         <v>2</v>
       </c>
-      <c r="D4" s="189" t="str">
+      <c r="D4" s="188" t="str">
         <f t="shared" ref="D4:D13" si="3">"x"&amp;C4+$D$1&amp;"F"</f>
         <v>x5F</v>
       </c>
-      <c r="E4" s="187" t="str">
+      <c r="E4" s="186" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F4" s="187" t="str">
+      <c r="F4" s="186" t="str">
         <f t="shared" si="1"/>
         <v>JPY2x5F_Quote</v>
       </c>
-      <c r="G4" s="187" t="str">
+      <c r="G4" s="186" t="str">
         <f>_xll.qlFraRateHelper(,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031b#0002</v>
-      </c>
-      <c r="H4" s="188" t="str">
+        <v>obj_00324#0001</v>
+      </c>
+      <c r="H4" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G4)</f>
         <v/>
       </c>
@@ -13279,30 +13294,30 @@
     </row>
     <row r="5" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55"/>
-      <c r="B5" s="187" t="str">
+      <c r="B5" s="186" t="str">
         <f t="shared" si="2"/>
         <v>3M</v>
       </c>
-      <c r="C5" s="190">
+      <c r="C5" s="189">
         <v>3</v>
       </c>
-      <c r="D5" s="189" t="str">
+      <c r="D5" s="188" t="str">
         <f t="shared" si="3"/>
         <v>x6F</v>
       </c>
-      <c r="E5" s="187" t="str">
+      <c r="E5" s="186" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F5" s="187" t="str">
+      <c r="F5" s="186" t="str">
         <f t="shared" si="1"/>
         <v>JPY3x6F_Quote</v>
       </c>
-      <c r="G5" s="187" t="str">
+      <c r="G5" s="186" t="str">
         <f>_xll.qlFraRateHelper(,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00318#0002</v>
-      </c>
-      <c r="H5" s="188" t="str">
+        <v>obj_00318#0001</v>
+      </c>
+      <c r="H5" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
         <v/>
       </c>
@@ -13310,30 +13325,30 @@
     </row>
     <row r="6" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55"/>
-      <c r="B6" s="187" t="str">
+      <c r="B6" s="186" t="str">
         <f t="shared" si="2"/>
         <v>4M</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>4</v>
       </c>
-      <c r="D6" s="189" t="str">
+      <c r="D6" s="188" t="str">
         <f t="shared" si="3"/>
         <v>x7F</v>
       </c>
-      <c r="E6" s="187" t="str">
+      <c r="E6" s="186" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F6" s="187" t="str">
+      <c r="F6" s="186" t="str">
         <f t="shared" si="1"/>
         <v>JPY4x7F_Quote</v>
       </c>
-      <c r="G6" s="187" t="str">
+      <c r="G6" s="186" t="str">
         <f>_xll.qlFraRateHelper(,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00326#0002</v>
-      </c>
-      <c r="H6" s="188" t="str">
+        <v>obj_00325#0001</v>
+      </c>
+      <c r="H6" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G6)</f>
         <v/>
       </c>
@@ -13341,30 +13356,30 @@
     </row>
     <row r="7" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="55"/>
-      <c r="B7" s="187" t="str">
+      <c r="B7" s="186" t="str">
         <f t="shared" si="2"/>
         <v>5M</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>5</v>
       </c>
-      <c r="D7" s="189" t="str">
+      <c r="D7" s="188" t="str">
         <f t="shared" si="3"/>
         <v>x8F</v>
       </c>
-      <c r="E7" s="187" t="str">
+      <c r="E7" s="186" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F7" s="187" t="str">
+      <c r="F7" s="186" t="str">
         <f t="shared" si="1"/>
         <v>JPY5x8F_Quote</v>
       </c>
-      <c r="G7" s="187" t="str">
+      <c r="G7" s="186" t="str">
         <f>_xll.qlFraRateHelper(,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00325#0002</v>
-      </c>
-      <c r="H7" s="188" t="str">
+        <v>obj_00321#0001</v>
+      </c>
+      <c r="H7" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
         <v/>
       </c>
@@ -13372,30 +13387,30 @@
     </row>
     <row r="8" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="55"/>
-      <c r="B8" s="187" t="str">
+      <c r="B8" s="186" t="str">
         <f t="shared" si="2"/>
         <v>6M</v>
       </c>
-      <c r="C8" s="190">
+      <c r="C8" s="189">
         <v>6</v>
       </c>
-      <c r="D8" s="189" t="str">
+      <c r="D8" s="188" t="str">
         <f t="shared" si="3"/>
         <v>x9F</v>
       </c>
-      <c r="E8" s="187" t="str">
+      <c r="E8" s="186" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F8" s="187" t="str">
+      <c r="F8" s="186" t="str">
         <f t="shared" si="1"/>
         <v>JPY6x9F_Quote</v>
       </c>
-      <c r="G8" s="187" t="str">
+      <c r="G8" s="186" t="str">
         <f>_xll.qlFraRateHelper(,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00321#0002</v>
-      </c>
-      <c r="H8" s="188" t="str">
+        <v>obj_0031e#0001</v>
+      </c>
+      <c r="H8" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
         <v/>
       </c>
@@ -13403,30 +13418,30 @@
     </row>
     <row r="9" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55"/>
-      <c r="B9" s="187" t="str">
+      <c r="B9" s="186" t="str">
         <f t="shared" si="2"/>
         <v>9M</v>
       </c>
-      <c r="C9" s="190">
+      <c r="C9" s="189">
         <v>9</v>
       </c>
-      <c r="D9" s="189" t="str">
+      <c r="D9" s="188" t="str">
         <f t="shared" si="3"/>
         <v>x12F</v>
       </c>
-      <c r="E9" s="187" t="str">
+      <c r="E9" s="186" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F9" s="187" t="str">
+      <c r="F9" s="186" t="str">
         <f t="shared" si="1"/>
         <v>JPY9x12F_Quote</v>
       </c>
-      <c r="G9" s="187" t="str">
+      <c r="G9" s="186" t="str">
         <f>_xll.qlFraRateHelper(,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031e#0002</v>
-      </c>
-      <c r="H9" s="188" t="str">
+        <v>obj_00323#0001</v>
+      </c>
+      <c r="H9" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
         <v/>
       </c>
@@ -13434,30 +13449,30 @@
     </row>
     <row r="10" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55"/>
-      <c r="B10" s="187" t="str">
+      <c r="B10" s="186" t="str">
         <f t="shared" si="2"/>
         <v>12M</v>
       </c>
-      <c r="C10" s="190">
+      <c r="C10" s="189">
         <v>12</v>
       </c>
-      <c r="D10" s="189" t="str">
+      <c r="D10" s="188" t="str">
         <f t="shared" si="3"/>
         <v>x15F</v>
       </c>
-      <c r="E10" s="187" t="str">
+      <c r="E10" s="186" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F10" s="187" t="str">
+      <c r="F10" s="186" t="str">
         <f t="shared" si="1"/>
         <v>JPY12x15F_Quote</v>
       </c>
-      <c r="G10" s="187" t="str">
+      <c r="G10" s="186" t="str">
         <f>_xll.qlFraRateHelper(,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00317#0002</v>
-      </c>
-      <c r="H10" s="188" t="str">
+        <v>obj_00326#0001</v>
+      </c>
+      <c r="H10" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
         <v/>
       </c>
@@ -13465,30 +13480,30 @@
     </row>
     <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55"/>
-      <c r="B11" s="187" t="str">
+      <c r="B11" s="186" t="str">
         <f t="shared" si="2"/>
         <v>15M</v>
       </c>
-      <c r="C11" s="190">
+      <c r="C11" s="189">
         <v>15</v>
       </c>
-      <c r="D11" s="189" t="str">
+      <c r="D11" s="188" t="str">
         <f t="shared" si="3"/>
         <v>x18F</v>
       </c>
-      <c r="E11" s="187" t="str">
+      <c r="E11" s="186" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F11" s="187" t="str">
+      <c r="F11" s="186" t="str">
         <f t="shared" si="1"/>
         <v>JPY15x18F_Quote</v>
       </c>
-      <c r="G11" s="187" t="str">
+      <c r="G11" s="186" t="str">
         <f>_xll.qlFraRateHelper(,F11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031c#0002</v>
-      </c>
-      <c r="H11" s="188" t="str">
+        <v>obj_00319#0001</v>
+      </c>
+      <c r="H11" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
         <v/>
       </c>
@@ -13496,30 +13511,30 @@
     </row>
     <row r="12" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55"/>
-      <c r="B12" s="187" t="str">
+      <c r="B12" s="186" t="str">
         <f t="shared" si="2"/>
         <v>18M</v>
       </c>
-      <c r="C12" s="190">
+      <c r="C12" s="189">
         <v>18</v>
       </c>
-      <c r="D12" s="189" t="str">
+      <c r="D12" s="188" t="str">
         <f t="shared" si="3"/>
         <v>x21F</v>
       </c>
-      <c r="E12" s="187" t="str">
+      <c r="E12" s="186" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F12" s="187" t="str">
+      <c r="F12" s="186" t="str">
         <f t="shared" si="1"/>
         <v>JPY18x21F_Quote</v>
       </c>
-      <c r="G12" s="187" t="str">
+      <c r="G12" s="186" t="str">
         <f>_xll.qlFraRateHelper(,F12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00322#0002</v>
-      </c>
-      <c r="H12" s="188" t="str">
+        <v>obj_00322#0001</v>
+      </c>
+      <c r="H12" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
         <v/>
       </c>
@@ -13527,30 +13542,30 @@
     </row>
     <row r="13" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55"/>
-      <c r="B13" s="187" t="str">
+      <c r="B13" s="186" t="str">
         <f t="shared" si="2"/>
         <v>21M</v>
       </c>
-      <c r="C13" s="190">
+      <c r="C13" s="189">
         <v>21</v>
       </c>
-      <c r="D13" s="189" t="str">
+      <c r="D13" s="188" t="str">
         <f t="shared" si="3"/>
         <v>x24F</v>
       </c>
-      <c r="E13" s="187" t="str">
+      <c r="E13" s="186" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F13" s="187" t="str">
+      <c r="F13" s="186" t="str">
         <f t="shared" si="1"/>
         <v>JPY21x24F_Quote</v>
       </c>
-      <c r="G13" s="187" t="str">
+      <c r="G13" s="186" t="str">
         <f>_xll.qlFraRateHelper(,F13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031a#0002</v>
-      </c>
-      <c r="H13" s="188" t="str">
+        <v>obj_00320#0001</v>
+      </c>
+      <c r="H13" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
         <v/>
       </c>
@@ -13580,1512 +13595,1825 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="45" customWidth="1"/>
     <col min="2" max="2" width="3" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="45"/>
+    <col min="3" max="3" width="7" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="45" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="67"/>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
       <c r="D1" s="150"/>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="152" t="str">
+      <c r="H1" s="151"/>
+      <c r="I1" s="152" t="str">
         <f>Currency&amp;"_YC"&amp;"STDRH"</f>
         <v>JPY_YCSTDRH</v>
       </c>
-      <c r="H1" s="61" t="str">
-        <f>$G$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
+      <c r="J1" s="61" t="str">
+        <f>$I$1&amp;"_Futures"&amp;$G$1&amp;".xml"</f>
         <v>JPY_YCSTDRH_Futures3M.xml</v>
       </c>
-      <c r="I1" s="153"/>
-      <c r="J1" s="49"/>
-    </row>
-    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="153"/>
+      <c r="L1" s="49"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="154" t="s">
+      <c r="E2" s="154" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="F2" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="H2" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="145" t="s">
+      <c r="I2" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="147" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H44,SerializationPath&amp;H1,FileOverwrite,Serialize),"---")</f>
+      <c r="J2" s="147" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(J3:J44,SerializationPath&amp;J1,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="I2" s="59" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+      <c r="K2" s="59" t="str">
+        <f>_xll.ohRangeRetrieveError(J2)</f>
         <v/>
       </c>
-      <c r="J2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="49"/>
+    </row>
+    <row r="3" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="155"/>
       <c r="B3" s="58">
         <v>1</v>
       </c>
-      <c r="C3" s="156" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="156" t="str">
-        <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
-        <v>G5</v>
+      <c r="C3" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="156" t="b">
+        <v>0</v>
       </c>
       <c r="E3" s="156" t="str">
-        <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
+        <f t="array" ref="E3:E44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$D3:$D44)</f>
+        <v>K5</v>
+      </c>
+      <c r="F3" s="203">
+        <f>_xll.qlIMMdate(E3)</f>
+        <v>42144</v>
+      </c>
+      <c r="G3" s="156" t="str">
+        <f t="shared" ref="G3:G34" si="0">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F3" s="157" t="str">
-        <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>JPYFUT3MG5_Quote</v>
-      </c>
-      <c r="G3" s="157" t="str">
-        <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>JPYFUT3MG5ConvAdj_Quote</v>
-      </c>
-      <c r="H3" s="158" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036e#0002</v>
-      </c>
-      <c r="I3" s="56" t="str">
-        <f>_xll.ohRangeRetrieveError(H3)</f>
+      <c r="H3" s="157" t="str">
+        <f t="shared" ref="H3:H34" si="1">Currency&amp;"FUT"&amp;$G$1&amp;$E3&amp;QuoteSuffix</f>
+        <v>JPYFUT3MK5_Quote</v>
+      </c>
+      <c r="I3" s="157" t="str">
+        <f t="shared" ref="I3:I34" si="2">Currency&amp;"FUT"&amp;$G$1&amp;$E3&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <v>JPYFUT3MK5ConvAdj_Quote</v>
+      </c>
+      <c r="J3" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H3,$C3,$F3,$G3,$I3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00351#0001</v>
+      </c>
+      <c r="K3" s="56" t="str">
+        <f>_xll.ohRangeRetrieveError(J3)</f>
         <v/>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="159"/>
-    </row>
-    <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="49"/>
+      <c r="M3" s="159"/>
+    </row>
+    <row r="4" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="155"/>
       <c r="B4" s="54">
         <v>2</v>
       </c>
-      <c r="C4" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="160" t="str">
-        <v>H5</v>
-      </c>
-      <c r="E4" s="156" t="str">
+      <c r="C4" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="160" t="str">
+        <v>M5</v>
+      </c>
+      <c r="F4" s="203">
+        <f>_xll.qlIMMdate(E4)</f>
+        <v>42172</v>
+      </c>
+      <c r="G4" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F4" s="157" t="str">
+      <c r="H4" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH5_Quote</v>
-      </c>
-      <c r="G4" s="157" t="str">
+        <v>JPYFUT3MM5_Quote</v>
+      </c>
+      <c r="I4" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH5ConvAdj_Quote</v>
-      </c>
-      <c r="H4" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0002</v>
-      </c>
-      <c r="I4" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H4)</f>
+        <v>JPYFUT3MM5ConvAdj_Quote</v>
+      </c>
+      <c r="J4" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H4,$C4,$F4,$G4,$I4,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00372#0001</v>
+      </c>
+      <c r="K4" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J4)</f>
         <v/>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="159"/>
-    </row>
-    <row r="5" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="49"/>
+      <c r="M4" s="159"/>
+    </row>
+    <row r="5" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="155"/>
       <c r="B5" s="54">
         <v>3</v>
       </c>
-      <c r="C5" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="160" t="str">
-        <v>J5</v>
-      </c>
-      <c r="E5" s="156" t="str">
+      <c r="C5" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="160" t="str">
+        <v>N5</v>
+      </c>
+      <c r="F5" s="203">
+        <f>_xll.qlIMMdate(E5)</f>
+        <v>42200</v>
+      </c>
+      <c r="G5" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F5" s="157" t="str">
+      <c r="H5" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MJ5_Quote</v>
-      </c>
-      <c r="G5" s="157" t="str">
+        <v>JPYFUT3MN5_Quote</v>
+      </c>
+      <c r="I5" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MJ5ConvAdj_Quote</v>
-      </c>
-      <c r="H5" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036b#0002</v>
-      </c>
-      <c r="I5" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H5)</f>
+        <v>JPYFUT3MN5ConvAdj_Quote</v>
+      </c>
+      <c r="J5" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H5,$C5,$F5,$G5,$I5,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00359#0001</v>
+      </c>
+      <c r="K5" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J5)</f>
         <v/>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="159"/>
-    </row>
-    <row r="6" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="49"/>
+      <c r="M5" s="159"/>
+    </row>
+    <row r="6" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="155"/>
       <c r="B6" s="54">
         <v>4</v>
       </c>
-      <c r="C6" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="160" t="str">
-        <v>K5</v>
-      </c>
-      <c r="E6" s="156" t="str">
+      <c r="C6" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="160" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="F6" s="203">
+        <f>_xll.qlIMMdate(E6)</f>
+        <v>42235</v>
+      </c>
+      <c r="G6" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F6" s="157" t="str">
+      <c r="H6" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MK5_Quote</v>
-      </c>
-      <c r="G6" s="157" t="str">
+        <v>JPYFUT3MQ5_Quote</v>
+      </c>
+      <c r="I6" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MK5ConvAdj_Quote</v>
-      </c>
-      <c r="H6" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00376#0002</v>
-      </c>
-      <c r="I6" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H6)</f>
+        <v>JPYFUT3MQ5ConvAdj_Quote</v>
+      </c>
+      <c r="J6" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H6,$C6,$F6,$G6,$I6,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0034f#0001</v>
+      </c>
+      <c r="K6" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J6)</f>
         <v/>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="159"/>
-    </row>
-    <row r="7" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="49"/>
+      <c r="M6" s="159"/>
+    </row>
+    <row r="7" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="155"/>
       <c r="B7" s="54">
         <v>5</v>
       </c>
-      <c r="C7" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="160" t="str">
-        <v>M5</v>
-      </c>
-      <c r="E7" s="156" t="str">
+      <c r="C7" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="160" t="str">
+        <v>U5</v>
+      </c>
+      <c r="F7" s="203">
+        <f>_xll.qlIMMdate(E7)</f>
+        <v>42263</v>
+      </c>
+      <c r="G7" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F7" s="157" t="str">
+      <c r="H7" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM5_Quote</v>
-      </c>
-      <c r="G7" s="157" t="str">
+        <v>JPYFUT3MU5_Quote</v>
+      </c>
+      <c r="I7" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM5ConvAdj_Quote</v>
-      </c>
-      <c r="H7" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00359#0002</v>
-      </c>
-      <c r="I7" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H7)</f>
+        <v>JPYFUT3MU5ConvAdj_Quote</v>
+      </c>
+      <c r="J7" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H7,$C7,$F7,$G7,$I7,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00371#0001</v>
+      </c>
+      <c r="K7" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J7)</f>
         <v/>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="159"/>
-    </row>
-    <row r="8" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="49"/>
+      <c r="M7" s="159"/>
+    </row>
+    <row r="8" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="155"/>
       <c r="B8" s="54">
         <v>6</v>
       </c>
-      <c r="C8" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="160" t="str">
-        <v>N5</v>
-      </c>
-      <c r="E8" s="156" t="str">
+      <c r="C8" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="160" t="str">
+        <v>V5</v>
+      </c>
+      <c r="F8" s="203">
+        <f>_xll.qlIMMdate(E8)</f>
+        <v>42298</v>
+      </c>
+      <c r="G8" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F8" s="157" t="str">
+      <c r="H8" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MN5_Quote</v>
-      </c>
-      <c r="G8" s="157" t="str">
+        <v>JPYFUT3MV5_Quote</v>
+      </c>
+      <c r="I8" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MN5ConvAdj_Quote</v>
-      </c>
-      <c r="H8" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00356#0002</v>
-      </c>
-      <c r="I8" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H8)</f>
+        <v>JPYFUT3MV5ConvAdj_Quote</v>
+      </c>
+      <c r="J8" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H8,$C8,$F8,$G8,$I8,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00360#0001</v>
+      </c>
+      <c r="K8" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J8)</f>
         <v/>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="159"/>
-    </row>
-    <row r="9" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="49"/>
+      <c r="M8" s="159"/>
+    </row>
+    <row r="9" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="155"/>
       <c r="B9" s="54">
         <v>7</v>
       </c>
-      <c r="C9" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="160" t="str">
-        <v>Q5</v>
-      </c>
-      <c r="E9" s="156" t="str">
+      <c r="C9" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="160" t="str">
+        <v>X5</v>
+      </c>
+      <c r="F9" s="203">
+        <f>_xll.qlIMMdate(E9)</f>
+        <v>42326</v>
+      </c>
+      <c r="G9" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F9" s="157" t="str">
+      <c r="H9" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MQ5_Quote</v>
-      </c>
-      <c r="G9" s="157" t="str">
+        <v>JPYFUT3MX5_Quote</v>
+      </c>
+      <c r="I9" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MQ5ConvAdj_Quote</v>
-      </c>
-      <c r="H9" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00372#0002</v>
-      </c>
-      <c r="I9" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H9)</f>
+        <v>JPYFUT3MX5ConvAdj_Quote</v>
+      </c>
+      <c r="J9" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H9,$C9,$F9,$G9,$I9,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00366#0001</v>
+      </c>
+      <c r="K9" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J9)</f>
         <v/>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="159"/>
-    </row>
-    <row r="10" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="49"/>
+      <c r="M9" s="159"/>
+    </row>
+    <row r="10" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="155"/>
       <c r="B10" s="54">
         <v>8</v>
       </c>
-      <c r="C10" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="160" t="str">
-        <v>U5</v>
-      </c>
-      <c r="E10" s="156" t="str">
+      <c r="C10" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="160" t="str">
+        <v>Z5</v>
+      </c>
+      <c r="F10" s="203">
+        <f>_xll.qlIMMdate(E10)</f>
+        <v>42354</v>
+      </c>
+      <c r="G10" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F10" s="157" t="str">
+      <c r="H10" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU5_Quote</v>
-      </c>
-      <c r="G10" s="157" t="str">
+        <v>JPYFUT3MZ5_Quote</v>
+      </c>
+      <c r="I10" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU5ConvAdj_Quote</v>
-      </c>
-      <c r="H10" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00358#0002</v>
-      </c>
-      <c r="I10" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H10)</f>
+        <v>JPYFUT3MZ5ConvAdj_Quote</v>
+      </c>
+      <c r="J10" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H10,$C10,$F10,$G10,$I10,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00352#0001</v>
+      </c>
+      <c r="K10" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J10)</f>
         <v/>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="159"/>
-    </row>
-    <row r="11" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="49"/>
+      <c r="M10" s="159"/>
+    </row>
+    <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="155"/>
       <c r="B11" s="54">
         <v>9</v>
       </c>
-      <c r="C11" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="160" t="str">
-        <v>V5</v>
-      </c>
-      <c r="E11" s="156" t="str">
+      <c r="C11" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="160" t="str">
+        <v>F6</v>
+      </c>
+      <c r="F11" s="203">
+        <f>_xll.qlIMMdate(E11)</f>
+        <v>42389</v>
+      </c>
+      <c r="G11" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F11" s="157" t="str">
+      <c r="H11" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MV5_Quote</v>
-      </c>
-      <c r="G11" s="157" t="str">
+        <v>JPYFUT3MF6_Quote</v>
+      </c>
+      <c r="I11" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MV5ConvAdj_Quote</v>
-      </c>
-      <c r="H11" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036c#0002</v>
-      </c>
-      <c r="I11" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H11)</f>
+        <v>JPYFUT3MF6ConvAdj_Quote</v>
+      </c>
+      <c r="J11" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H11,$C11,$F11,$G11,$I11,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00376#0001</v>
+      </c>
+      <c r="K11" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J11)</f>
         <v/>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="159"/>
-    </row>
-    <row r="12" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="49"/>
+      <c r="M11" s="159"/>
+    </row>
+    <row r="12" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="155"/>
       <c r="B12" s="54">
         <v>10</v>
       </c>
-      <c r="C12" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="160" t="str">
-        <v>X5</v>
-      </c>
-      <c r="E12" s="156" t="str">
+      <c r="C12" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="160" t="str">
+        <v>G6</v>
+      </c>
+      <c r="F12" s="203">
+        <f>_xll.qlIMMdate(E12)</f>
+        <v>42417</v>
+      </c>
+      <c r="G12" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F12" s="157" t="str">
+      <c r="H12" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MX5_Quote</v>
-      </c>
-      <c r="G12" s="157" t="str">
+        <v>JPYFUT3MG6_Quote</v>
+      </c>
+      <c r="I12" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MX5ConvAdj_Quote</v>
-      </c>
-      <c r="H12" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00364#0002</v>
-      </c>
-      <c r="I12" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H12)</f>
+        <v>JPYFUT3MG6ConvAdj_Quote</v>
+      </c>
+      <c r="J12" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H12,$C12,$F12,$G12,$I12,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00373#0001</v>
+      </c>
+      <c r="K12" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J12)</f>
         <v/>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="159"/>
-    </row>
-    <row r="13" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="49"/>
+      <c r="M12" s="159"/>
+    </row>
+    <row r="13" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="155"/>
       <c r="B13" s="54">
         <v>11</v>
       </c>
-      <c r="C13" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="160" t="str">
-        <v>Z5</v>
-      </c>
-      <c r="E13" s="156" t="str">
+      <c r="C13" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="160" t="str">
+        <v>H6</v>
+      </c>
+      <c r="F13" s="203">
+        <f>_xll.qlIMMdate(E13)</f>
+        <v>42445</v>
+      </c>
+      <c r="G13" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F13" s="157" t="str">
+      <c r="H13" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ5_Quote</v>
-      </c>
-      <c r="G13" s="157" t="str">
+        <v>JPYFUT3MH6_Quote</v>
+      </c>
+      <c r="I13" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ5ConvAdj_Quote</v>
-      </c>
-      <c r="H13" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036a#0002</v>
-      </c>
-      <c r="I13" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H13)</f>
+        <v>JPYFUT3MH6ConvAdj_Quote</v>
+      </c>
+      <c r="J13" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H13,$C13,$F13,$G13,$I13,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00354#0001</v>
+      </c>
+      <c r="K13" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J13)</f>
         <v/>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="159"/>
-    </row>
-    <row r="14" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="49"/>
+      <c r="M13" s="159"/>
+    </row>
+    <row r="14" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="155"/>
       <c r="B14" s="54">
         <v>12</v>
       </c>
-      <c r="C14" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="160" t="str">
-        <v>F6</v>
-      </c>
-      <c r="E14" s="156" t="str">
+      <c r="C14" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="160" t="str">
+        <v>J6</v>
+      </c>
+      <c r="F14" s="203">
+        <f>_xll.qlIMMdate(E14)</f>
+        <v>42480</v>
+      </c>
+      <c r="G14" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F14" s="157" t="str">
+      <c r="H14" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MF6_Quote</v>
-      </c>
-      <c r="G14" s="157" t="str">
+        <v>JPYFUT3MJ6_Quote</v>
+      </c>
+      <c r="I14" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MF6ConvAdj_Quote</v>
-      </c>
-      <c r="H14" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0002</v>
-      </c>
-      <c r="I14" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H14)</f>
+        <v>JPYFUT3MJ6ConvAdj_Quote</v>
+      </c>
+      <c r="J14" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H14,$C14,$F14,$G14,$I14,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00358#0001</v>
+      </c>
+      <c r="K14" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J14)</f>
         <v/>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="159"/>
-    </row>
-    <row r="15" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="49"/>
+      <c r="M14" s="159"/>
+    </row>
+    <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="155"/>
       <c r="B15" s="54">
         <v>13</v>
       </c>
-      <c r="C15" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="160" t="str">
-        <v>H6</v>
-      </c>
-      <c r="E15" s="156" t="str">
+      <c r="C15" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="160" t="str">
+        <v>M6</v>
+      </c>
+      <c r="F15" s="203">
+        <f>_xll.qlIMMdate(E15)</f>
+        <v>42536</v>
+      </c>
+      <c r="G15" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F15" s="157" t="str">
+      <c r="H15" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH6_Quote</v>
-      </c>
-      <c r="G15" s="157" t="str">
+        <v>JPYFUT3MM6_Quote</v>
+      </c>
+      <c r="I15" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH6ConvAdj_Quote</v>
-      </c>
-      <c r="H15" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0002</v>
-      </c>
-      <c r="I15" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H15)</f>
+        <v>JPYFUT3MM6ConvAdj_Quote</v>
+      </c>
+      <c r="J15" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H15,$C15,$F15,$G15,$I15,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0035b#0001</v>
+      </c>
+      <c r="K15" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J15)</f>
         <v/>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="159"/>
-    </row>
-    <row r="16" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="49"/>
+      <c r="M15" s="159"/>
+    </row>
+    <row r="16" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="155"/>
       <c r="B16" s="54">
         <v>14</v>
       </c>
-      <c r="C16" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="160" t="str">
-        <v>M6</v>
-      </c>
-      <c r="E16" s="156" t="str">
+      <c r="C16" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="160" t="str">
+        <v>U6</v>
+      </c>
+      <c r="F16" s="203">
+        <f>_xll.qlIMMdate(E16)</f>
+        <v>42634</v>
+      </c>
+      <c r="G16" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F16" s="157" t="str">
+      <c r="H16" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM6_Quote</v>
-      </c>
-      <c r="G16" s="157" t="str">
+        <v>JPYFUT3MU6_Quote</v>
+      </c>
+      <c r="I16" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM6ConvAdj_Quote</v>
-      </c>
-      <c r="H16" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0002</v>
-      </c>
-      <c r="I16" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H16)</f>
+        <v>JPYFUT3MU6ConvAdj_Quote</v>
+      </c>
+      <c r="J16" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H16,$C16,$F16,$G16,$I16,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0035e#0001</v>
+      </c>
+      <c r="K16" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J16)</f>
         <v/>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="159"/>
-    </row>
-    <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="49"/>
+      <c r="M16" s="159"/>
+    </row>
+    <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="155"/>
       <c r="B17" s="54">
         <v>15</v>
       </c>
-      <c r="C17" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="160" t="str">
-        <v>U6</v>
-      </c>
-      <c r="E17" s="156" t="str">
+      <c r="C17" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="160" t="str">
+        <v>Z6</v>
+      </c>
+      <c r="F17" s="203">
+        <f>_xll.qlIMMdate(E17)</f>
+        <v>42725</v>
+      </c>
+      <c r="G17" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F17" s="157" t="str">
+      <c r="H17" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU6_Quote</v>
-      </c>
-      <c r="G17" s="157" t="str">
+        <v>JPYFUT3MZ6_Quote</v>
+      </c>
+      <c r="I17" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU6ConvAdj_Quote</v>
-      </c>
-      <c r="H17" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0002</v>
-      </c>
-      <c r="I17" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H17)</f>
+        <v>JPYFUT3MZ6ConvAdj_Quote</v>
+      </c>
+      <c r="J17" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H17,$C17,$F17,$G17,$I17,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0035d#0001</v>
+      </c>
+      <c r="K17" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J17)</f>
         <v/>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="159"/>
-    </row>
-    <row r="18" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="49"/>
+      <c r="M17" s="159"/>
+    </row>
+    <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="155"/>
       <c r="B18" s="54">
         <v>16</v>
       </c>
-      <c r="C18" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="160" t="str">
-        <v>Z6</v>
-      </c>
-      <c r="E18" s="156" t="str">
+      <c r="C18" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="160" t="str">
+        <v>H7</v>
+      </c>
+      <c r="F18" s="203">
+        <f>_xll.qlIMMdate(E18)</f>
+        <v>42809</v>
+      </c>
+      <c r="G18" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F18" s="157" t="str">
+      <c r="H18" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ6_Quote</v>
-      </c>
-      <c r="G18" s="157" t="str">
+        <v>JPYFUT3MH7_Quote</v>
+      </c>
+      <c r="I18" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ6ConvAdj_Quote</v>
-      </c>
-      <c r="H18" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00374#0002</v>
-      </c>
-      <c r="I18" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H18)</f>
+        <v>JPYFUT3MH7ConvAdj_Quote</v>
+      </c>
+      <c r="J18" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H18,$C18,$F18,$G18,$I18,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00361#0001</v>
+      </c>
+      <c r="K18" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J18)</f>
         <v/>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="159"/>
-    </row>
-    <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="49"/>
+      <c r="M18" s="159"/>
+    </row>
+    <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="155"/>
       <c r="B19" s="54">
         <v>17</v>
       </c>
-      <c r="C19" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="160" t="str">
-        <v>H7</v>
-      </c>
-      <c r="E19" s="156" t="str">
+      <c r="C19" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="160" t="str">
+        <v>M7</v>
+      </c>
+      <c r="F19" s="203">
+        <f>_xll.qlIMMdate(E19)</f>
+        <v>42907</v>
+      </c>
+      <c r="G19" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F19" s="157" t="str">
+      <c r="H19" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH7_Quote</v>
-      </c>
-      <c r="G19" s="157" t="str">
+        <v>JPYFUT3MM7_Quote</v>
+      </c>
+      <c r="I19" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH7ConvAdj_Quote</v>
-      </c>
-      <c r="H19" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0002</v>
-      </c>
-      <c r="I19" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H19)</f>
+        <v>JPYFUT3MM7ConvAdj_Quote</v>
+      </c>
+      <c r="J19" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H19,$C19,$F19,$G19,$I19,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0035c#0001</v>
+      </c>
+      <c r="K19" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J19)</f>
         <v/>
       </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="159"/>
-    </row>
-    <row r="20" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="49"/>
+      <c r="M19" s="159"/>
+    </row>
+    <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="155"/>
       <c r="B20" s="54">
         <v>18</v>
       </c>
-      <c r="C20" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="160" t="str">
-        <v>M7</v>
-      </c>
-      <c r="E20" s="156" t="str">
+      <c r="C20" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="160" t="str">
+        <v>U7</v>
+      </c>
+      <c r="F20" s="203">
+        <f>_xll.qlIMMdate(E20)</f>
+        <v>42998</v>
+      </c>
+      <c r="G20" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F20" s="157" t="str">
+      <c r="H20" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM7_Quote</v>
-      </c>
-      <c r="G20" s="157" t="str">
+        <v>JPYFUT3MU7_Quote</v>
+      </c>
+      <c r="I20" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM7ConvAdj_Quote</v>
-      </c>
-      <c r="H20" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0002</v>
-      </c>
-      <c r="I20" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H20)</f>
+        <v>JPYFUT3MU7ConvAdj_Quote</v>
+      </c>
+      <c r="J20" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H20,$C20,$F20,$G20,$I20,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00353#0001</v>
+      </c>
+      <c r="K20" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J20)</f>
         <v/>
       </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="159"/>
-    </row>
-    <row r="21" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="49"/>
+      <c r="M20" s="159"/>
+    </row>
+    <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="155"/>
       <c r="B21" s="54">
         <v>19</v>
       </c>
-      <c r="C21" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="160" t="str">
-        <v>U7</v>
-      </c>
-      <c r="E21" s="156" t="str">
+      <c r="C21" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="160" t="str">
+        <v>Z7</v>
+      </c>
+      <c r="F21" s="203">
+        <f>_xll.qlIMMdate(E21)</f>
+        <v>43089</v>
+      </c>
+      <c r="G21" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F21" s="157" t="str">
+      <c r="H21" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU7_Quote</v>
-      </c>
-      <c r="G21" s="157" t="str">
+        <v>JPYFUT3MZ7_Quote</v>
+      </c>
+      <c r="I21" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU7ConvAdj_Quote</v>
-      </c>
-      <c r="H21" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00354#0002</v>
-      </c>
-      <c r="I21" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H21)</f>
+        <v>JPYFUT3MZ7ConvAdj_Quote</v>
+      </c>
+      <c r="J21" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H21,$C21,$F21,$G21,$I21,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00374#0001</v>
+      </c>
+      <c r="K21" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J21)</f>
         <v/>
       </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="159"/>
-    </row>
-    <row r="22" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="49"/>
+      <c r="M21" s="159"/>
+    </row>
+    <row r="22" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="155"/>
       <c r="B22" s="54">
         <v>20</v>
       </c>
-      <c r="C22" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="160" t="str">
-        <v>Z7</v>
-      </c>
-      <c r="E22" s="156" t="str">
+      <c r="C22" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="160" t="str">
+        <v>H8</v>
+      </c>
+      <c r="F22" s="203">
+        <f>_xll.qlIMMdate(E22)</f>
+        <v>43180</v>
+      </c>
+      <c r="G22" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F22" s="157" t="str">
+      <c r="H22" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ7_Quote</v>
-      </c>
-      <c r="G22" s="157" t="str">
+        <v>JPYFUT3MH8_Quote</v>
+      </c>
+      <c r="I22" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ7ConvAdj_Quote</v>
-      </c>
-      <c r="H22" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00355#0002</v>
-      </c>
-      <c r="I22" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H22)</f>
+        <v>JPYFUT3MH8ConvAdj_Quote</v>
+      </c>
+      <c r="J22" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H22,$C22,$F22,$G22,$I22,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00378#0001</v>
+      </c>
+      <c r="K22" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J22)</f>
         <v/>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="159"/>
-    </row>
-    <row r="23" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="49"/>
+      <c r="M22" s="159"/>
+    </row>
+    <row r="23" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="155"/>
       <c r="B23" s="54">
         <v>21</v>
       </c>
-      <c r="C23" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="160" t="str">
-        <v>H8</v>
-      </c>
-      <c r="E23" s="156" t="str">
+      <c r="C23" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="160" t="str">
+        <v>M8</v>
+      </c>
+      <c r="F23" s="203">
+        <f>_xll.qlIMMdate(E23)</f>
+        <v>43271</v>
+      </c>
+      <c r="G23" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F23" s="157" t="str">
+      <c r="H23" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH8_Quote</v>
-      </c>
-      <c r="G23" s="157" t="str">
+        <v>JPYFUT3MM8_Quote</v>
+      </c>
+      <c r="I23" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH8ConvAdj_Quote</v>
-      </c>
-      <c r="H23" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00352#0002</v>
-      </c>
-      <c r="I23" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H23)</f>
+        <v>JPYFUT3MM8ConvAdj_Quote</v>
+      </c>
+      <c r="J23" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H23,$C23,$F23,$G23,$I23,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0036d#0001</v>
+      </c>
+      <c r="K23" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J23)</f>
         <v/>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="159"/>
-    </row>
-    <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="49"/>
+      <c r="M23" s="159"/>
+    </row>
+    <row r="24" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="155"/>
       <c r="B24" s="54">
         <v>22</v>
       </c>
-      <c r="C24" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="160" t="str">
-        <v>M8</v>
-      </c>
-      <c r="E24" s="156" t="str">
+      <c r="C24" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="160" t="str">
+        <v>U8</v>
+      </c>
+      <c r="F24" s="203">
+        <f>_xll.qlIMMdate(E24)</f>
+        <v>43362</v>
+      </c>
+      <c r="G24" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F24" s="157" t="str">
+      <c r="H24" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM8_Quote</v>
-      </c>
-      <c r="G24" s="157" t="str">
+        <v>JPYFUT3MU8_Quote</v>
+      </c>
+      <c r="I24" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM8ConvAdj_Quote</v>
-      </c>
-      <c r="H24" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00366#0002</v>
-      </c>
-      <c r="I24" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H24)</f>
+        <v>JPYFUT3MU8ConvAdj_Quote</v>
+      </c>
+      <c r="J24" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H24,$C24,$F24,$G24,$I24,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0036e#0001</v>
+      </c>
+      <c r="K24" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J24)</f>
         <v/>
       </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="159"/>
-    </row>
-    <row r="25" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="49"/>
+      <c r="M24" s="159"/>
+    </row>
+    <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="155"/>
       <c r="B25" s="54">
         <v>23</v>
       </c>
-      <c r="C25" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="160" t="str">
-        <v>U8</v>
-      </c>
-      <c r="E25" s="156" t="str">
+      <c r="C25" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="160" t="str">
+        <v>Z8</v>
+      </c>
+      <c r="F25" s="203">
+        <f>_xll.qlIMMdate(E25)</f>
+        <v>43453</v>
+      </c>
+      <c r="G25" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F25" s="157" t="str">
+      <c r="H25" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU8_Quote</v>
-      </c>
-      <c r="G25" s="157" t="str">
+        <v>JPYFUT3MZ8_Quote</v>
+      </c>
+      <c r="I25" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU8ConvAdj_Quote</v>
-      </c>
-      <c r="H25" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00377#0002</v>
-      </c>
-      <c r="I25" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H25)</f>
+        <v>JPYFUT3MZ8ConvAdj_Quote</v>
+      </c>
+      <c r="J25" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H25,$C25,$F25,$G25,$I25,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00377#0001</v>
+      </c>
+      <c r="K25" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J25)</f>
         <v/>
       </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="159"/>
-    </row>
-    <row r="26" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="49"/>
+      <c r="M25" s="159"/>
+    </row>
+    <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="155"/>
       <c r="B26" s="54">
         <v>24</v>
       </c>
-      <c r="C26" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="160" t="str">
-        <v>Z8</v>
-      </c>
-      <c r="E26" s="156" t="str">
+      <c r="C26" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="160" t="str">
+        <v>H9</v>
+      </c>
+      <c r="F26" s="203">
+        <f>_xll.qlIMMdate(E26)</f>
+        <v>43544</v>
+      </c>
+      <c r="G26" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F26" s="157" t="str">
+      <c r="H26" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ8_Quote</v>
-      </c>
-      <c r="G26" s="157" t="str">
+        <v>JPYFUT3MH9_Quote</v>
+      </c>
+      <c r="I26" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ8ConvAdj_Quote</v>
-      </c>
-      <c r="H26" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00375#0002</v>
-      </c>
-      <c r="I26" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H26)</f>
+        <v>JPYFUT3MH9ConvAdj_Quote</v>
+      </c>
+      <c r="J26" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H26,$C26,$F26,$G26,$I26,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00363#0001</v>
+      </c>
+      <c r="K26" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J26)</f>
         <v/>
       </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="159"/>
-    </row>
-    <row r="27" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="49"/>
+      <c r="M26" s="159"/>
+    </row>
+    <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="155"/>
       <c r="B27" s="54">
         <v>25</v>
       </c>
-      <c r="C27" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="160" t="str">
-        <v>H9</v>
-      </c>
-      <c r="E27" s="156" t="str">
+      <c r="C27" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="160" t="str">
+        <v>M9</v>
+      </c>
+      <c r="F27" s="203">
+        <f>_xll.qlIMMdate(E27)</f>
+        <v>43635</v>
+      </c>
+      <c r="G27" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F27" s="157" t="str">
+      <c r="H27" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH9_Quote</v>
-      </c>
-      <c r="G27" s="157" t="str">
+        <v>JPYFUT3MM9_Quote</v>
+      </c>
+      <c r="I27" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH9ConvAdj_Quote</v>
-      </c>
-      <c r="H27" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0002</v>
-      </c>
-      <c r="I27" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H27)</f>
+        <v>JPYFUT3MM9ConvAdj_Quote</v>
+      </c>
+      <c r="J27" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H27,$C27,$F27,$G27,$I27,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00369#0001</v>
+      </c>
+      <c r="K27" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J27)</f>
         <v/>
       </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="159"/>
-    </row>
-    <row r="28" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="49"/>
+      <c r="M27" s="159"/>
+    </row>
+    <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="155"/>
       <c r="B28" s="54">
         <v>26</v>
       </c>
-      <c r="C28" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="160" t="str">
-        <v>M9</v>
-      </c>
-      <c r="E28" s="156" t="str">
+      <c r="C28" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="160" t="str">
+        <v>U9</v>
+      </c>
+      <c r="F28" s="203">
+        <f>_xll.qlIMMdate(E28)</f>
+        <v>43726</v>
+      </c>
+      <c r="G28" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F28" s="157" t="str">
+      <c r="H28" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM9_Quote</v>
-      </c>
-      <c r="G28" s="157" t="str">
+        <v>JPYFUT3MU9_Quote</v>
+      </c>
+      <c r="I28" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM9ConvAdj_Quote</v>
-      </c>
-      <c r="H28" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00365#0002</v>
-      </c>
-      <c r="I28" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H28)</f>
+        <v>JPYFUT3MU9ConvAdj_Quote</v>
+      </c>
+      <c r="J28" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H28,$C28,$F28,$G28,$I28,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00364#0001</v>
+      </c>
+      <c r="K28" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J28)</f>
         <v/>
       </c>
-      <c r="J28" s="49"/>
-      <c r="K28" s="159"/>
-    </row>
-    <row r="29" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="49"/>
+      <c r="M28" s="159"/>
+    </row>
+    <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="155"/>
       <c r="B29" s="54">
         <v>27</v>
       </c>
-      <c r="C29" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="160" t="str">
-        <v>U9</v>
-      </c>
-      <c r="E29" s="156" t="str">
+      <c r="C29" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="160" t="str">
+        <v>Z9</v>
+      </c>
+      <c r="F29" s="203">
+        <f>_xll.qlIMMdate(E29)</f>
+        <v>43817</v>
+      </c>
+      <c r="G29" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F29" s="157" t="str">
+      <c r="H29" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU9_Quote</v>
-      </c>
-      <c r="G29" s="157" t="str">
+        <v>JPYFUT3MZ9_Quote</v>
+      </c>
+      <c r="I29" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU9ConvAdj_Quote</v>
-      </c>
-      <c r="H29" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0002</v>
-      </c>
-      <c r="I29" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H29)</f>
+        <v>JPYFUT3MZ9ConvAdj_Quote</v>
+      </c>
+      <c r="J29" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H29,$C29,$F29,$G29,$I29,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00362#0001</v>
+      </c>
+      <c r="K29" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J29)</f>
         <v/>
       </c>
-      <c r="J29" s="49"/>
-      <c r="K29" s="159"/>
-    </row>
-    <row r="30" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="49"/>
+      <c r="M29" s="159"/>
+    </row>
+    <row r="30" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="155"/>
       <c r="B30" s="54">
         <v>28</v>
       </c>
-      <c r="C30" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="160" t="str">
-        <v>Z9</v>
-      </c>
-      <c r="E30" s="156" t="str">
+      <c r="C30" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="160" t="str">
+        <v>H0</v>
+      </c>
+      <c r="F30" s="203">
+        <f>_xll.qlIMMdate(E30)</f>
+        <v>43908</v>
+      </c>
+      <c r="G30" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F30" s="157" t="str">
+      <c r="H30" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ9_Quote</v>
-      </c>
-      <c r="G30" s="157" t="str">
+        <v>JPYFUT3MH0_Quote</v>
+      </c>
+      <c r="I30" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ9ConvAdj_Quote</v>
-      </c>
-      <c r="H30" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00367#0002</v>
-      </c>
-      <c r="I30" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H30)</f>
+        <v>JPYFUT3MH0ConvAdj_Quote</v>
+      </c>
+      <c r="J30" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H30,$C30,$F30,$G30,$I30,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0035f#0001</v>
+      </c>
+      <c r="K30" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J30)</f>
         <v/>
       </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="159"/>
-    </row>
-    <row r="31" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="49"/>
+      <c r="M30" s="159"/>
+    </row>
+    <row r="31" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="155"/>
       <c r="B31" s="54">
         <v>29</v>
       </c>
-      <c r="C31" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="160" t="str">
-        <v>H0</v>
-      </c>
-      <c r="E31" s="156" t="str">
+      <c r="C31" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="160" t="str">
+        <v>M0</v>
+      </c>
+      <c r="F31" s="203">
+        <f>_xll.qlIMMdate(E31)</f>
+        <v>43999</v>
+      </c>
+      <c r="G31" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F31" s="157" t="str">
+      <c r="H31" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH0_Quote</v>
-      </c>
-      <c r="G31" s="157" t="str">
+        <v>JPYFUT3MM0_Quote</v>
+      </c>
+      <c r="I31" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH0ConvAdj_Quote</v>
-      </c>
-      <c r="H31" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034f#0002</v>
-      </c>
-      <c r="I31" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H31)</f>
+        <v>JPYFUT3MM0ConvAdj_Quote</v>
+      </c>
+      <c r="J31" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H31,$C31,$F31,$G31,$I31,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00367#0001</v>
+      </c>
+      <c r="K31" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J31)</f>
         <v/>
       </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="159"/>
-    </row>
-    <row r="32" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="49"/>
+      <c r="M31" s="159"/>
+    </row>
+    <row r="32" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="155"/>
       <c r="B32" s="54">
         <v>30</v>
       </c>
-      <c r="C32" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="160" t="str">
-        <v>M0</v>
-      </c>
-      <c r="E32" s="156" t="str">
+      <c r="C32" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="160" t="str">
+        <v>U0</v>
+      </c>
+      <c r="F32" s="203">
+        <f>_xll.qlIMMdate(E32)</f>
+        <v>44090</v>
+      </c>
+      <c r="G32" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F32" s="157" t="str">
+      <c r="H32" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM0_Quote</v>
-      </c>
-      <c r="G32" s="157" t="str">
+        <v>JPYFUT3MU0_Quote</v>
+      </c>
+      <c r="I32" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM0ConvAdj_Quote</v>
-      </c>
-      <c r="H32" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00368#0002</v>
-      </c>
-      <c r="I32" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H32)</f>
+        <v>JPYFUT3MU0ConvAdj_Quote</v>
+      </c>
+      <c r="J32" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H32,$C32,$F32,$G32,$I32,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0035a#0001</v>
+      </c>
+      <c r="K32" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J32)</f>
         <v/>
       </c>
-      <c r="J32" s="49"/>
-      <c r="K32" s="159"/>
-    </row>
-    <row r="33" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="49"/>
+      <c r="M32" s="159"/>
+    </row>
+    <row r="33" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="155"/>
       <c r="B33" s="54">
         <v>31</v>
       </c>
-      <c r="C33" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="160" t="str">
-        <v>U0</v>
-      </c>
-      <c r="E33" s="156" t="str">
+      <c r="C33" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="160" t="str">
+        <v>Z0</v>
+      </c>
+      <c r="F33" s="203">
+        <f>_xll.qlIMMdate(E33)</f>
+        <v>44181</v>
+      </c>
+      <c r="G33" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F33" s="157" t="str">
+      <c r="H33" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU0_Quote</v>
-      </c>
-      <c r="G33" s="157" t="str">
+        <v>JPYFUT3MZ0_Quote</v>
+      </c>
+      <c r="I33" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU0ConvAdj_Quote</v>
-      </c>
-      <c r="H33" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00370#0002</v>
-      </c>
-      <c r="I33" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H33)</f>
+        <v>JPYFUT3MZ0ConvAdj_Quote</v>
+      </c>
+      <c r="J33" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H33,$C33,$F33,$G33,$I33,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00368#0001</v>
+      </c>
+      <c r="K33" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J33)</f>
         <v/>
       </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="159"/>
-    </row>
-    <row r="34" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="49"/>
+      <c r="M33" s="159"/>
+    </row>
+    <row r="34" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="155"/>
       <c r="B34" s="54">
         <v>32</v>
       </c>
-      <c r="C34" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="160" t="str">
-        <v>Z0</v>
-      </c>
-      <c r="E34" s="156" t="str">
+      <c r="C34" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="160" t="str">
+        <v>H1</v>
+      </c>
+      <c r="F34" s="203">
+        <f>_xll.qlIMMdate(E34)</f>
+        <v>44272</v>
+      </c>
+      <c r="G34" s="156" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F34" s="157" t="str">
+      <c r="H34" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ0_Quote</v>
-      </c>
-      <c r="G34" s="157" t="str">
+        <v>JPYFUT3MH1_Quote</v>
+      </c>
+      <c r="I34" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ0ConvAdj_Quote</v>
-      </c>
-      <c r="H34" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00357#0002</v>
-      </c>
-      <c r="I34" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H34)</f>
+        <v>JPYFUT3MH1ConvAdj_Quote</v>
+      </c>
+      <c r="J34" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H34,$C34,$F34,$G34,$I34,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0036b#0001</v>
+      </c>
+      <c r="K34" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J34)</f>
         <v/>
       </c>
-      <c r="J34" s="49"/>
-      <c r="K34" s="159"/>
-    </row>
-    <row r="35" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="49"/>
+      <c r="M34" s="159"/>
+    </row>
+    <row r="35" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="155"/>
       <c r="B35" s="54">
         <v>33</v>
       </c>
-      <c r="C35" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="160" t="str">
-        <v>H1</v>
-      </c>
-      <c r="E35" s="156" t="str">
-        <f t="shared" ref="E35:E44" si="3">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
+      <c r="C35" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="160" t="str">
+        <v>M1</v>
+      </c>
+      <c r="F35" s="203">
+        <f>_xll.qlIMMdate(E35)</f>
+        <v>44363</v>
+      </c>
+      <c r="G35" s="156" t="str">
+        <f t="shared" ref="G35:G44" si="3">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F35" s="157" t="str">
-        <f t="shared" ref="F35:F44" si="4">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
-        <v>JPYFUT3MH1_Quote</v>
-      </c>
-      <c r="G35" s="157" t="str">
-        <f t="shared" ref="G35:G44" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>JPYFUT3MH1ConvAdj_Quote</v>
-      </c>
-      <c r="H35" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036f#0002</v>
-      </c>
-      <c r="I35" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H35)</f>
+      <c r="H35" s="157" t="str">
+        <f t="shared" ref="H35:H44" si="4">Currency&amp;"FUT"&amp;$G$1&amp;$E35&amp;QuoteSuffix</f>
+        <v>JPYFUT3MM1_Quote</v>
+      </c>
+      <c r="I35" s="157" t="str">
+        <f t="shared" ref="I35:I44" si="5">Currency&amp;"FUT"&amp;$G$1&amp;$E35&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <v>JPYFUT3MM1ConvAdj_Quote</v>
+      </c>
+      <c r="J35" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H35,$C35,$F35,$G35,$I35,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00356#0001</v>
+      </c>
+      <c r="K35" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J35)</f>
         <v/>
       </c>
-      <c r="J35" s="49"/>
-      <c r="K35" s="159"/>
-    </row>
-    <row r="36" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="49"/>
+      <c r="M35" s="159"/>
+    </row>
+    <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="155"/>
       <c r="B36" s="54">
         <v>34</v>
       </c>
-      <c r="C36" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" s="160" t="str">
-        <v>M1</v>
-      </c>
-      <c r="E36" s="156" t="str">
+      <c r="C36" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="160" t="str">
+        <v>U1</v>
+      </c>
+      <c r="F36" s="203">
+        <f>_xll.qlIMMdate(E36)</f>
+        <v>44454</v>
+      </c>
+      <c r="G36" s="156" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F36" s="157" t="str">
+      <c r="H36" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MM1_Quote</v>
-      </c>
-      <c r="G36" s="157" t="str">
+        <v>JPYFUT3MU1_Quote</v>
+      </c>
+      <c r="I36" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MM1ConvAdj_Quote</v>
-      </c>
-      <c r="H36" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00353#0002</v>
-      </c>
-      <c r="I36" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H36)</f>
+        <v>JPYFUT3MU1ConvAdj_Quote</v>
+      </c>
+      <c r="J36" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H36,$C36,$F36,$G36,$I36,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00375#0001</v>
+      </c>
+      <c r="K36" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J36)</f>
         <v/>
       </c>
-      <c r="J36" s="49"/>
-      <c r="K36" s="159"/>
-    </row>
-    <row r="37" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="49"/>
+      <c r="M36" s="159"/>
+    </row>
+    <row r="37" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="155"/>
       <c r="B37" s="54">
         <v>35</v>
       </c>
-      <c r="C37" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="160" t="str">
-        <v>U1</v>
-      </c>
-      <c r="E37" s="156" t="str">
+      <c r="C37" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="160" t="str">
+        <v>Z1</v>
+      </c>
+      <c r="F37" s="203">
+        <f>_xll.qlIMMdate(E37)</f>
+        <v>44545</v>
+      </c>
+      <c r="G37" s="156" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F37" s="157" t="str">
+      <c r="H37" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MU1_Quote</v>
-      </c>
-      <c r="G37" s="157" t="str">
+        <v>JPYFUT3MZ1_Quote</v>
+      </c>
+      <c r="I37" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MU1ConvAdj_Quote</v>
-      </c>
-      <c r="H37" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00369#0002</v>
-      </c>
-      <c r="I37" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H37)</f>
+        <v>JPYFUT3MZ1ConvAdj_Quote</v>
+      </c>
+      <c r="J37" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H37,$C37,$F37,$G37,$I37,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00370#0001</v>
+      </c>
+      <c r="K37" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J37)</f>
         <v/>
       </c>
-      <c r="J37" s="49"/>
-      <c r="K37" s="159"/>
-    </row>
-    <row r="38" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="49"/>
+      <c r="M37" s="159"/>
+    </row>
+    <row r="38" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="155"/>
       <c r="B38" s="54">
         <v>36</v>
       </c>
-      <c r="C38" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" s="160" t="str">
-        <v>Z1</v>
-      </c>
-      <c r="E38" s="156" t="str">
+      <c r="C38" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="160" t="str">
+        <v>H2</v>
+      </c>
+      <c r="F38" s="203">
+        <f>_xll.qlIMMdate(E38)</f>
+        <v>44636</v>
+      </c>
+      <c r="G38" s="156" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F38" s="157" t="str">
+      <c r="H38" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MZ1_Quote</v>
-      </c>
-      <c r="G38" s="157" t="str">
+        <v>JPYFUT3MH2_Quote</v>
+      </c>
+      <c r="I38" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MZ1ConvAdj_Quote</v>
-      </c>
-      <c r="H38" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00373#0002</v>
-      </c>
-      <c r="I38" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H38)</f>
+        <v>JPYFUT3MH2ConvAdj_Quote</v>
+      </c>
+      <c r="J38" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H38,$C38,$F38,$G38,$I38,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0036c#0001</v>
+      </c>
+      <c r="K38" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J38)</f>
         <v/>
       </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="159"/>
-    </row>
-    <row r="39" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="49"/>
+      <c r="M38" s="159"/>
+    </row>
+    <row r="39" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="155"/>
       <c r="B39" s="54">
         <v>37</v>
       </c>
-      <c r="C39" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="160" t="str">
-        <v>H2</v>
-      </c>
-      <c r="E39" s="156" t="str">
+      <c r="C39" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="160" t="str">
+        <v>M2</v>
+      </c>
+      <c r="F39" s="203">
+        <f>_xll.qlIMMdate(E39)</f>
+        <v>44727</v>
+      </c>
+      <c r="G39" s="156" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F39" s="157" t="str">
+      <c r="H39" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MH2_Quote</v>
-      </c>
-      <c r="G39" s="157" t="str">
+        <v>JPYFUT3MM2_Quote</v>
+      </c>
+      <c r="I39" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MH2ConvAdj_Quote</v>
-      </c>
-      <c r="H39" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00351#0002</v>
-      </c>
-      <c r="I39" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H39)</f>
+        <v>JPYFUT3MM2ConvAdj_Quote</v>
+      </c>
+      <c r="J39" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H39,$C39,$F39,$G39,$I39,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0036f#0001</v>
+      </c>
+      <c r="K39" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J39)</f>
         <v/>
       </c>
-      <c r="J39" s="49"/>
-      <c r="K39" s="159"/>
-    </row>
-    <row r="40" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="49"/>
+      <c r="M39" s="159"/>
+    </row>
+    <row r="40" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="155"/>
       <c r="B40" s="54">
         <v>38</v>
       </c>
-      <c r="C40" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="160" t="str">
-        <v>M2</v>
-      </c>
-      <c r="E40" s="156" t="str">
+      <c r="C40" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="160" t="str">
+        <v>U2</v>
+      </c>
+      <c r="F40" s="203">
+        <f>_xll.qlIMMdate(E40)</f>
+        <v>44825</v>
+      </c>
+      <c r="G40" s="156" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F40" s="157" t="str">
+      <c r="H40" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MM2_Quote</v>
-      </c>
-      <c r="G40" s="157" t="str">
+        <v>JPYFUT3MU2_Quote</v>
+      </c>
+      <c r="I40" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MM2ConvAdj_Quote</v>
-      </c>
-      <c r="H40" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00371#0002</v>
-      </c>
-      <c r="I40" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H40)</f>
+        <v>JPYFUT3MU2ConvAdj_Quote</v>
+      </c>
+      <c r="J40" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H40,$C40,$F40,$G40,$I40,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0036a#0001</v>
+      </c>
+      <c r="K40" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J40)</f>
         <v/>
       </c>
-      <c r="J40" s="49"/>
-    </row>
-    <row r="41" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="49"/>
+    </row>
+    <row r="41" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="155"/>
       <c r="B41" s="54">
         <v>39</v>
       </c>
-      <c r="C41" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="160" t="str">
-        <v>U2</v>
-      </c>
-      <c r="E41" s="156" t="str">
+      <c r="C41" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="160" t="str">
+        <v>Z2</v>
+      </c>
+      <c r="F41" s="203">
+        <f>_xll.qlIMMdate(E41)</f>
+        <v>44916</v>
+      </c>
+      <c r="G41" s="156" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F41" s="157" t="str">
+      <c r="H41" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MU2_Quote</v>
-      </c>
-      <c r="G41" s="157" t="str">
+        <v>JPYFUT3MZ2_Quote</v>
+      </c>
+      <c r="I41" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MU2ConvAdj_Quote</v>
-      </c>
-      <c r="H41" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00363#0002</v>
-      </c>
-      <c r="I41" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H41)</f>
+        <v>JPYFUT3MZ2ConvAdj_Quote</v>
+      </c>
+      <c r="J41" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H41,$C41,$F41,$G41,$I41,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00357#0001</v>
+      </c>
+      <c r="K41" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J41)</f>
         <v/>
       </c>
-      <c r="J41" s="49"/>
-    </row>
-    <row r="42" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="49"/>
+    </row>
+    <row r="42" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="155"/>
       <c r="B42" s="54">
         <v>40</v>
       </c>
-      <c r="C42" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" s="160" t="str">
-        <v>Z2</v>
-      </c>
-      <c r="E42" s="156" t="str">
+      <c r="C42" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="160" t="str">
+        <v>H3</v>
+      </c>
+      <c r="F42" s="203">
+        <f>_xll.qlIMMdate(E42)</f>
+        <v>45000</v>
+      </c>
+      <c r="G42" s="156" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="H42" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MZ2_Quote</v>
-      </c>
-      <c r="G42" s="157" t="str">
+        <v>JPYFUT3MH3_Quote</v>
+      </c>
+      <c r="I42" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MZ2ConvAdj_Quote</v>
-      </c>
-      <c r="H42" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00350#0002</v>
-      </c>
-      <c r="I42" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H42)</f>
+        <v>JPYFUT3MH3ConvAdj_Quote</v>
+      </c>
+      <c r="J42" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H42,$C42,$F42,$G42,$I42,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00350#0001</v>
+      </c>
+      <c r="K42" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J42)</f>
         <v/>
       </c>
-      <c r="J42" s="49"/>
-    </row>
-    <row r="43" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="49"/>
+    </row>
+    <row r="43" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="155"/>
       <c r="B43" s="54">
         <v>41</v>
       </c>
-      <c r="C43" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="160" t="str">
-        <v>H3</v>
-      </c>
-      <c r="E43" s="156" t="str">
+      <c r="C43" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="160" t="str">
+        <v>M3</v>
+      </c>
+      <c r="F43" s="203">
+        <f>_xll.qlIMMdate(E43)</f>
+        <v>45098</v>
+      </c>
+      <c r="G43" s="156" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F43" s="157" t="str">
+      <c r="H43" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MH3_Quote</v>
-      </c>
-      <c r="G43" s="157" t="str">
+        <v>JPYFUT3MM3_Quote</v>
+      </c>
+      <c r="I43" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MH3ConvAdj_Quote</v>
-      </c>
-      <c r="H43" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00378#0002</v>
-      </c>
-      <c r="I43" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H43)</f>
+        <v>JPYFUT3MM3ConvAdj_Quote</v>
+      </c>
+      <c r="J43" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H43,$C43,$F43,$G43,$I43,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00365#0001</v>
+      </c>
+      <c r="K43" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J43)</f>
         <v/>
       </c>
-      <c r="J43" s="49"/>
-    </row>
-    <row r="44" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="49"/>
+    </row>
+    <row r="44" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="155"/>
       <c r="B44" s="54">
         <v>42</v>
       </c>
-      <c r="C44" s="160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" s="160" t="str">
-        <v>M3</v>
-      </c>
-      <c r="E44" s="156" t="str">
+      <c r="C44" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="160" t="str">
+        <v>U3</v>
+      </c>
+      <c r="F44" s="203">
+        <f>_xll.qlIMMdate(E44)</f>
+        <v>45189</v>
+      </c>
+      <c r="G44" s="156" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F44" s="157" t="str">
+      <c r="H44" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MM3_Quote</v>
-      </c>
-      <c r="G44" s="157" t="str">
+        <v>JPYFUT3MU3_Quote</v>
+      </c>
+      <c r="I44" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MM3ConvAdj_Quote</v>
-      </c>
-      <c r="H44" s="161" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0002</v>
-      </c>
-      <c r="I44" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(H44)</f>
+        <v>JPYFUT3MU3ConvAdj_Quote</v>
+      </c>
+      <c r="J44" s="158" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H44,$C44,$F44,$G44,$I44,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00355#0001</v>
+      </c>
+      <c r="K44" s="50" t="str">
+        <f>_xll.ohRangeRetrieveError(J44)</f>
         <v/>
       </c>
-      <c r="J44" s="49"/>
-    </row>
-    <row r="45" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="162"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="163"/>
-      <c r="J45" s="46"/>
+      <c r="L44" s="49"/>
+    </row>
+    <row r="45" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="161"/>
+      <c r="B45" s="162"/>
+      <c r="C45" s="162"/>
+      <c r="D45" s="162"/>
+      <c r="E45" s="162"/>
+      <c r="F45" s="162"/>
+      <c r="G45" s="162"/>
+      <c r="H45" s="162"/>
+      <c r="I45" s="162"/>
+      <c r="J45" s="162"/>
+      <c r="K45" s="162"/>
+      <c r="L45" s="46"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C44">
+      <formula1>"IMM,ASX"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -15095,32 +15423,34 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="45" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" style="184" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="45" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" style="45" customWidth="1"/>
-    <col min="14" max="14" width="2.5703125" style="45" customWidth="1"/>
-    <col min="15" max="15" width="4" style="45" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="45"/>
+    <col min="2" max="3" width="6.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="183" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="45" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="45" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="4" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -15129,54 +15459,58 @@
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
       <c r="H1" s="66"/>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="65" t="str">
+      <c r="K1" s="65" t="str">
         <f>Currency&amp;"_YC"&amp;"STDRH"</f>
         <v>JPY_YCSTDRH</v>
       </c>
-      <c r="K1" s="165" t="str">
-        <f>J1&amp;"_Swaps.xml"</f>
+      <c r="L1" s="164" t="str">
+        <f>K1&amp;"_Swaps.xml"</f>
         <v>JPY_YCSTDRH_Swaps.xml</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="164"/>
-    </row>
-    <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="M1" s="66"/>
+      <c r="N1" s="163"/>
+    </row>
+    <row r="2" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
       <c r="B2" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="62"/>
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="H2" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="I2" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="J2" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="K2" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="147" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K41,SerializationPath&amp;K1,FileOverwrite,Serialize),"---")</f>
+      <c r="L2" s="147" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(L3:L41,SerializationPath&amp;L1,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="L2" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K2)</f>
+      <c r="M2" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L2)</f>
         <v/>
       </c>
-      <c r="M2" s="167"/>
-    </row>
-    <row r="3" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="166"/>
+    </row>
+    <row r="3" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -15187,17 +15521,18 @@
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
-      <c r="K3" s="168" t="str">
-        <f>_xll.qlLibor(,Currency,$I$1,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031f#0002</v>
-      </c>
-      <c r="L3" s="169" t="str">
-        <f>_xll.ohRangeRetrieveError(K3)</f>
+      <c r="K3" s="66"/>
+      <c r="L3" s="167" t="str">
+        <f>_xll.qlLibor(,Currency,$J$1,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00327#0001</v>
+      </c>
+      <c r="M3" s="168" t="str">
+        <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="M3" s="164"/>
-    </row>
-    <row r="4" spans="1:17" s="63" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="163"/>
+    </row>
+    <row r="4" spans="1:18" s="63" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
@@ -15210,1606 +15545,1718 @@
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
-      <c r="M4" s="164"/>
-    </row>
-    <row r="5" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="66"/>
+      <c r="N4" s="163"/>
+    </row>
+    <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="169">
+        <v>2</v>
+      </c>
+      <c r="C5" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="170" t="s">
+      <c r="D5" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="170" t="str">
-        <f t="array" ref="D5:D41">VLOOKUP(Currency,Conventions,2)</f>
+      <c r="E5" s="169" t="str">
+        <f t="array" ref="E5:E41">VLOOKUP(Currency,Conventions,2)</f>
         <v>SB</v>
       </c>
-      <c r="E5" s="170" t="str">
-        <f t="array" ref="E5:E41">VLOOKUP(Currency,Conventions,3)</f>
+      <c r="F5" s="169" t="str">
+        <f t="array" ref="F5:F41">VLOOKUP(Currency,Conventions,3)</f>
         <v>6L</v>
       </c>
-      <c r="F5" s="160" t="str">
-        <f t="shared" ref="F5:F41" si="0">IF(UPPER(LEFT($D5))="A","Annual",IF(UPPER(LEFT($D5))="S","Semiannual","--"))</f>
+      <c r="G5" s="160" t="str">
+        <f t="shared" ref="G5:G41" si="0">IF(UPPER(LEFT($E5))="A","Annual",IF(UPPER(LEFT($E5))="S","Semiannual","--"))</f>
         <v>Semiannual</v>
       </c>
-      <c r="G5" s="160" t="s">
+      <c r="H5" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="160" t="str">
-        <f t="shared" ref="H5:H41" si="1">IF(UPPER(RIGHT($D5))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D5))="M",MoneyMarketDayCounter,"--"))</f>
+      <c r="I5" s="160" t="str">
+        <f t="shared" ref="I5:I41" si="1">IF(UPPER(RIGHT($E5))="B",BondBasisDayCounter,IF(UPPER(RIGHT($E5))="M",MoneyMarketDayCounter,"--"))</f>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I5" s="171">
-        <v>0</v>
-      </c>
-      <c r="J5" s="172" t="str">
-        <f t="shared" ref="J5:J41" si="2">Currency&amp;$D5&amp;$E5&amp;$C5&amp;QuoteSuffix</f>
+      <c r="J5" s="170">
+        <v>0</v>
+      </c>
+      <c r="K5" s="171" t="str">
+        <f t="shared" ref="K5:K41" si="2">Currency&amp;$E5&amp;$F5&amp;$D5&amp;QuoteSuffix</f>
         <v>JPYSB6L1Y_Quote</v>
       </c>
-      <c r="K5" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00339#0003</v>
-      </c>
-      <c r="L5" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K5)</f>
+      <c r="L5" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K5,$B5,$D5,Calendar,$G5,$H5,$I5,$L$3,$J5,C5,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00332#0001</v>
+      </c>
+      <c r="M5" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L5)</f>
         <v/>
       </c>
-      <c r="M5" s="167"/>
-      <c r="O5" s="174" t="s">
+      <c r="N5" s="166"/>
+      <c r="P5" s="173" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="175"/>
-    </row>
-    <row r="6" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="142"/>
+      <c r="R5" s="174"/>
+    </row>
+    <row r="6" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="169">
+        <v>2</v>
+      </c>
+      <c r="C6" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="170" t="s">
+      <c r="D6" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="170" t="str">
+      <c r="E6" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E6" s="170" t="str">
+      <c r="F6" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F6" s="156" t="str">
+      <c r="G6" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G6" s="156" t="s">
+      <c r="H6" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="156" t="str">
+      <c r="I6" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I6" s="171">
-        <v>0</v>
-      </c>
-      <c r="J6" s="176" t="str">
+      <c r="J6" s="170">
+        <v>0</v>
+      </c>
+      <c r="K6" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L15M_Quote</v>
       </c>
-      <c r="K6" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033e#0003</v>
-      </c>
-      <c r="L6" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K6)</f>
+      <c r="L6" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K6,$B6,$D6,Calendar,$G6,$H6,$I6,$L$3,$J6,C6,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00337#0001</v>
+      </c>
+      <c r="M6" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="M6" s="167"/>
-      <c r="O6" s="177" t="s">
+      <c r="N6" s="166"/>
+      <c r="P6" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="178" t="s">
+      <c r="Q6" s="177" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="179" t="s">
+      <c r="R6" s="178" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="169">
+        <v>2</v>
+      </c>
+      <c r="C7" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="D7" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="170" t="str">
+      <c r="E7" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E7" s="170" t="str">
+      <c r="F7" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F7" s="156" t="str">
+      <c r="G7" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G7" s="156" t="s">
+      <c r="H7" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="156" t="str">
+      <c r="I7" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I7" s="171">
-        <v>0</v>
-      </c>
-      <c r="J7" s="176" t="str">
+      <c r="J7" s="170">
+        <v>0</v>
+      </c>
+      <c r="K7" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L18M_Quote</v>
       </c>
-      <c r="K7" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032c#0003</v>
-      </c>
-      <c r="L7" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K7)</f>
+      <c r="L7" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K7,$B7,$D7,Calendar,$G7,$H7,$I7,$L$3,$J7,C7,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0032f#0001</v>
+      </c>
+      <c r="M7" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="M7" s="167"/>
-      <c r="O7" s="177" t="s">
+      <c r="N7" s="166"/>
+      <c r="P7" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="178" t="s">
+      <c r="Q7" s="177" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="179" t="s">
+      <c r="R7" s="178" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="169">
+        <v>2</v>
+      </c>
+      <c r="C8" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="D8" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="170" t="str">
+      <c r="E8" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E8" s="170" t="str">
+      <c r="F8" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F8" s="156" t="str">
+      <c r="G8" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G8" s="156" t="s">
+      <c r="H8" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="156" t="str">
+      <c r="I8" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I8" s="171">
-        <v>0</v>
-      </c>
-      <c r="J8" s="176" t="str">
+      <c r="J8" s="170">
+        <v>0</v>
+      </c>
+      <c r="K8" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L21M_Quote</v>
       </c>
-      <c r="K8" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00338#0003</v>
-      </c>
-      <c r="L8" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K8)</f>
+      <c r="L8" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K8,$B8,$D8,Calendar,$G8,$H8,$I8,$L$3,$J8,C8,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00342#0001</v>
+      </c>
+      <c r="M8" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="M8" s="167"/>
-      <c r="O8" s="177" t="s">
+      <c r="N8" s="166"/>
+      <c r="P8" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="P8" s="178" t="s">
+      <c r="Q8" s="177" t="s">
         <v>112</v>
       </c>
-      <c r="Q8" s="179" t="s">
+      <c r="R8" s="178" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="169">
+        <v>2</v>
+      </c>
+      <c r="C9" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="D9" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="170" t="str">
+      <c r="E9" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E9" s="170" t="str">
+      <c r="F9" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F9" s="156" t="str">
+      <c r="G9" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G9" s="156" t="s">
+      <c r="H9" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="156" t="str">
+      <c r="I9" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I9" s="171">
-        <v>0</v>
-      </c>
-      <c r="J9" s="176" t="str">
+      <c r="J9" s="170">
+        <v>0</v>
+      </c>
+      <c r="K9" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L2Y_Quote</v>
       </c>
-      <c r="K9" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00346#0003</v>
-      </c>
-      <c r="L9" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K9)</f>
+      <c r="L9" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K9,$B9,$D9,Calendar,$G9,$H9,$I9,$L$3,$J9,C9,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00335#0001</v>
+      </c>
+      <c r="M9" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="M9" s="167"/>
-      <c r="O9" s="180" t="s">
+      <c r="N9" s="166"/>
+      <c r="P9" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="P9" s="181" t="s">
+      <c r="Q9" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="Q9" s="182" t="s">
+      <c r="R9" s="181" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="169">
+        <v>2</v>
+      </c>
+      <c r="C10" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="170" t="s">
+      <c r="D10" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="170" t="str">
+      <c r="E10" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E10" s="170" t="str">
+      <c r="F10" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F10" s="156" t="str">
+      <c r="G10" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G10" s="156" t="s">
+      <c r="H10" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="156" t="str">
+      <c r="I10" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I10" s="171">
-        <v>0</v>
-      </c>
-      <c r="J10" s="176" t="str">
+      <c r="J10" s="170">
+        <v>0</v>
+      </c>
+      <c r="K10" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L3Y_Quote</v>
       </c>
-      <c r="K10" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032f#0003</v>
-      </c>
-      <c r="L10" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K10)</f>
+      <c r="L10" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K10,$B10,$D10,Calendar,$G10,$H10,$I10,$L$3,$J10,C10,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0032d#0001</v>
+      </c>
+      <c r="M10" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="M10" s="167"/>
-    </row>
-    <row r="11" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="166"/>
+    </row>
+    <row r="11" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="169">
+        <v>2</v>
+      </c>
+      <c r="C11" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="170" t="s">
+      <c r="D11" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="170" t="str">
+      <c r="E11" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E11" s="170" t="str">
+      <c r="F11" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F11" s="156" t="str">
+      <c r="G11" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G11" s="156" t="s">
+      <c r="H11" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="156" t="str">
+      <c r="I11" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I11" s="171">
-        <v>0</v>
-      </c>
-      <c r="J11" s="176" t="str">
+      <c r="J11" s="170">
+        <v>0</v>
+      </c>
+      <c r="K11" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L4Y_Quote</v>
       </c>
-      <c r="K11" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00340#0003</v>
-      </c>
-      <c r="L11" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K11)</f>
+      <c r="L11" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K11,$B11,$D11,Calendar,$G11,$H11,$I11,$L$3,$J11,C11,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00349#0001</v>
+      </c>
+      <c r="M11" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="M11" s="167"/>
-    </row>
-    <row r="12" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="166"/>
+    </row>
+    <row r="12" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="169">
+        <v>2</v>
+      </c>
+      <c r="C12" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="D12" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="170" t="str">
+      <c r="E12" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E12" s="170" t="str">
+      <c r="F12" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F12" s="156" t="str">
+      <c r="G12" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G12" s="156" t="s">
+      <c r="H12" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="156" t="str">
+      <c r="I12" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I12" s="171">
-        <v>0</v>
-      </c>
-      <c r="J12" s="176" t="str">
+      <c r="J12" s="170">
+        <v>0</v>
+      </c>
+      <c r="K12" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L5Y_Quote</v>
       </c>
-      <c r="K12" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032e#0003</v>
-      </c>
-      <c r="L12" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K12)</f>
+      <c r="L12" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K12,$B12,$D12,Calendar,$G12,$H12,$I12,$L$3,$J12,C12,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00336#0001</v>
+      </c>
+      <c r="M12" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="M12" s="167"/>
-    </row>
-    <row r="13" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="166"/>
+    </row>
+    <row r="13" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="169">
+        <v>2</v>
+      </c>
+      <c r="C13" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="170" t="s">
+      <c r="D13" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="170" t="str">
+      <c r="E13" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E13" s="170" t="str">
+      <c r="F13" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F13" s="156" t="str">
+      <c r="G13" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G13" s="156" t="s">
+      <c r="H13" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="156" t="str">
+      <c r="I13" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I13" s="171">
-        <v>0</v>
-      </c>
-      <c r="J13" s="176" t="str">
+      <c r="J13" s="170">
+        <v>0</v>
+      </c>
+      <c r="K13" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L6Y_Quote</v>
       </c>
-      <c r="K13" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033f#0003</v>
-      </c>
-      <c r="L13" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K13)</f>
+      <c r="L13" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K13,$B13,$D13,Calendar,$G13,$H13,$I13,$L$3,$J13,C13,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0034a#0001</v>
+      </c>
+      <c r="M13" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="M13" s="167"/>
-    </row>
-    <row r="14" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="166"/>
+    </row>
+    <row r="14" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
-      <c r="B14" s="170" t="s">
+      <c r="B14" s="169">
+        <v>2</v>
+      </c>
+      <c r="C14" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="170" t="s">
+      <c r="D14" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="170" t="str">
+      <c r="E14" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E14" s="170" t="str">
+      <c r="F14" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F14" s="156" t="str">
+      <c r="G14" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G14" s="156" t="s">
+      <c r="H14" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="156" t="str">
+      <c r="I14" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I14" s="171">
-        <v>0</v>
-      </c>
-      <c r="J14" s="176" t="str">
+      <c r="J14" s="170">
+        <v>0</v>
+      </c>
+      <c r="K14" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L7Y_Quote</v>
       </c>
-      <c r="K14" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00331#0003</v>
-      </c>
-      <c r="L14" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K14)</f>
+      <c r="L14" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K14,$B14,$D14,Calendar,$G14,$H14,$I14,$L$3,$J14,C14,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0033c#0001</v>
+      </c>
+      <c r="M14" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="M14" s="167"/>
-    </row>
-    <row r="15" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="166"/>
+    </row>
+    <row r="15" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="169">
+        <v>2</v>
+      </c>
+      <c r="C15" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="170" t="s">
+      <c r="D15" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="170" t="str">
+      <c r="E15" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E15" s="170" t="str">
+      <c r="F15" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F15" s="156" t="str">
+      <c r="G15" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G15" s="156" t="s">
+      <c r="H15" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="156" t="str">
+      <c r="I15" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I15" s="171">
-        <v>0</v>
-      </c>
-      <c r="J15" s="176" t="str">
+      <c r="J15" s="170">
+        <v>0</v>
+      </c>
+      <c r="K15" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L8Y_Quote</v>
       </c>
-      <c r="K15" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0034c#0003</v>
-      </c>
-      <c r="L15" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K15)</f>
+      <c r="L15" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K15,$B15,$D15,Calendar,$G15,$H15,$I15,$L$3,$J15,C15,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00331#0001</v>
+      </c>
+      <c r="M15" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="M15" s="167"/>
-    </row>
-    <row r="16" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="166"/>
+    </row>
+    <row r="16" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="169">
+        <v>2</v>
+      </c>
+      <c r="C16" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="170" t="s">
+      <c r="D16" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="170" t="str">
+      <c r="E16" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E16" s="170" t="str">
+      <c r="F16" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F16" s="156" t="str">
+      <c r="G16" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G16" s="156" t="s">
+      <c r="H16" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="156" t="str">
+      <c r="I16" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I16" s="171">
-        <v>0</v>
-      </c>
-      <c r="J16" s="176" t="str">
+      <c r="J16" s="170">
+        <v>0</v>
+      </c>
+      <c r="K16" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L9Y_Quote</v>
       </c>
-      <c r="K16" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00334#0003</v>
-      </c>
-      <c r="L16" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K16)</f>
+      <c r="L16" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K16,$B16,$D16,Calendar,$G16,$H16,$I16,$L$3,$J16,C16,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00347#0001</v>
+      </c>
+      <c r="M16" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="M16" s="167"/>
-    </row>
-    <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="166"/>
+    </row>
+    <row r="17" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="169">
+        <v>2</v>
+      </c>
+      <c r="C17" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="170" t="s">
+      <c r="D17" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="170" t="str">
+      <c r="E17" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E17" s="170" t="str">
+      <c r="F17" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F17" s="156" t="str">
+      <c r="G17" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G17" s="156" t="s">
+      <c r="H17" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="156" t="str">
+      <c r="I17" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I17" s="171">
-        <v>0</v>
-      </c>
-      <c r="J17" s="176" t="str">
+      <c r="J17" s="170">
+        <v>0</v>
+      </c>
+      <c r="K17" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L10Y_Quote</v>
       </c>
-      <c r="K17" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00341#0003</v>
-      </c>
-      <c r="L17" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K17)</f>
+      <c r="L17" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K17,$B17,$D17,Calendar,$G17,$H17,$I17,$L$3,$J17,C17,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00339#0001</v>
+      </c>
+      <c r="M17" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
-      <c r="M17" s="167"/>
-    </row>
-    <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="166"/>
+    </row>
+    <row r="18" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
-      <c r="B18" s="170" t="s">
+      <c r="B18" s="169">
+        <v>2</v>
+      </c>
+      <c r="C18" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="170" t="s">
+      <c r="D18" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="170" t="str">
+      <c r="E18" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E18" s="170" t="str">
+      <c r="F18" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F18" s="156" t="str">
+      <c r="G18" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G18" s="156" t="s">
+      <c r="H18" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="156" t="str">
+      <c r="I18" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I18" s="171">
-        <v>0</v>
-      </c>
-      <c r="J18" s="176" t="str">
+      <c r="J18" s="170">
+        <v>0</v>
+      </c>
+      <c r="K18" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L11Y_Quote</v>
       </c>
-      <c r="K18" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032a#0003</v>
-      </c>
-      <c r="L18" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K18)</f>
+      <c r="L18" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K18,$B18,$D18,Calendar,$G18,$H18,$I18,$L$3,$J18,C18,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0033a#0001</v>
+      </c>
+      <c r="M18" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
-      <c r="M18" s="167"/>
-    </row>
-    <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="166"/>
+    </row>
+    <row r="19" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="169">
+        <v>2</v>
+      </c>
+      <c r="C19" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="170" t="s">
+      <c r="D19" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="170" t="str">
+      <c r="E19" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E19" s="170" t="str">
+      <c r="F19" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F19" s="156" t="str">
+      <c r="G19" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G19" s="156" t="s">
+      <c r="H19" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="156" t="str">
+      <c r="I19" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I19" s="171">
-        <v>0</v>
-      </c>
-      <c r="J19" s="176" t="str">
+      <c r="J19" s="170">
+        <v>0</v>
+      </c>
+      <c r="K19" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L12Y_Quote</v>
       </c>
-      <c r="K19" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033b#0003</v>
-      </c>
-      <c r="L19" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K19)</f>
+      <c r="L19" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K19,$B19,$D19,Calendar,$G19,$H19,$I19,$L$3,$J19,C19,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0032e#0001</v>
+      </c>
+      <c r="M19" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
-      <c r="M19" s="167"/>
-    </row>
-    <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="166"/>
+    </row>
+    <row r="20" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="169">
+        <v>2</v>
+      </c>
+      <c r="C20" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="170" t="s">
+      <c r="D20" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="170" t="str">
+      <c r="E20" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E20" s="170" t="str">
+      <c r="F20" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F20" s="156" t="str">
+      <c r="G20" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G20" s="156" t="s">
+      <c r="H20" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="156" t="str">
+      <c r="I20" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I20" s="171">
-        <v>0</v>
-      </c>
-      <c r="J20" s="176" t="str">
+      <c r="J20" s="170">
+        <v>0</v>
+      </c>
+      <c r="K20" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L13Y_Quote</v>
       </c>
-      <c r="K20" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00329#0003</v>
-      </c>
-      <c r="L20" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K20)</f>
+      <c r="L20" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K20,$B20,$D20,Calendar,$G20,$H20,$I20,$L$3,$J20,C20,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0033b#0001</v>
+      </c>
+      <c r="M20" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
-      <c r="M20" s="167"/>
-    </row>
-    <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="166"/>
+    </row>
+    <row r="21" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
-      <c r="B21" s="170" t="s">
+      <c r="B21" s="169">
+        <v>2</v>
+      </c>
+      <c r="C21" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="170" t="s">
+      <c r="D21" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="170" t="str">
+      <c r="E21" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E21" s="170" t="str">
+      <c r="F21" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F21" s="156" t="str">
+      <c r="G21" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G21" s="156" t="s">
+      <c r="H21" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="156" t="str">
+      <c r="I21" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I21" s="171">
-        <v>0</v>
-      </c>
-      <c r="J21" s="176" t="str">
+      <c r="J21" s="170">
+        <v>0</v>
+      </c>
+      <c r="K21" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L14Y_Quote</v>
       </c>
-      <c r="K21" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033a#0003</v>
-      </c>
-      <c r="L21" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K21)</f>
+      <c r="L21" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K21,$B21,$D21,Calendar,$G21,$H21,$I21,$L$3,$J21,C21,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00329#0001</v>
+      </c>
+      <c r="M21" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
-      <c r="M21" s="167"/>
-    </row>
-    <row r="22" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="166"/>
+    </row>
+    <row r="22" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="169">
+        <v>2</v>
+      </c>
+      <c r="C22" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="170" t="s">
+      <c r="D22" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="170" t="str">
+      <c r="E22" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E22" s="170" t="str">
+      <c r="F22" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F22" s="156" t="str">
+      <c r="G22" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G22" s="156" t="s">
+      <c r="H22" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="156" t="str">
+      <c r="I22" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I22" s="171">
-        <v>0</v>
-      </c>
-      <c r="J22" s="176" t="str">
+      <c r="J22" s="170">
+        <v>0</v>
+      </c>
+      <c r="K22" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L15Y_Quote</v>
       </c>
-      <c r="K22" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032d#0003</v>
-      </c>
-      <c r="L22" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K22)</f>
+      <c r="L22" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K22,$B22,$D22,Calendar,$G22,$H22,$I22,$L$3,$J22,C22,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00341#0001</v>
+      </c>
+      <c r="M22" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
-      <c r="M22" s="167"/>
-    </row>
-    <row r="23" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="166"/>
+    </row>
+    <row r="23" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
-      <c r="B23" s="170" t="s">
+      <c r="B23" s="169">
+        <v>2</v>
+      </c>
+      <c r="C23" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="170" t="s">
+      <c r="D23" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="170" t="str">
+      <c r="E23" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E23" s="170" t="str">
+      <c r="F23" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F23" s="156" t="str">
+      <c r="G23" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G23" s="156" t="s">
+      <c r="H23" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="156" t="str">
+      <c r="I23" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I23" s="171">
-        <v>0</v>
-      </c>
-      <c r="J23" s="176" t="str">
+      <c r="J23" s="170">
+        <v>0</v>
+      </c>
+      <c r="K23" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L16Y_Quote</v>
       </c>
-      <c r="K23" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00347#0003</v>
-      </c>
-      <c r="L23" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K23)</f>
+      <c r="L23" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K23,$B23,$D23,Calendar,$G23,$H23,$I23,$L$3,$J23,C23,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00334#0001</v>
+      </c>
+      <c r="M23" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
-      <c r="M23" s="167"/>
-    </row>
-    <row r="24" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="166"/>
+    </row>
+    <row r="24" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
-      <c r="B24" s="170" t="s">
+      <c r="B24" s="169">
+        <v>2</v>
+      </c>
+      <c r="C24" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="170" t="s">
+      <c r="D24" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="170" t="str">
+      <c r="E24" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E24" s="170" t="str">
+      <c r="F24" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F24" s="156" t="str">
+      <c r="G24" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G24" s="156" t="s">
+      <c r="H24" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="156" t="str">
+      <c r="I24" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I24" s="171">
-        <v>0</v>
-      </c>
-      <c r="J24" s="176" t="str">
+      <c r="J24" s="170">
+        <v>0</v>
+      </c>
+      <c r="K24" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L17Y_Quote</v>
       </c>
-      <c r="K24" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00330#0003</v>
-      </c>
-      <c r="L24" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K24)</f>
+      <c r="L24" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K24,$B24,$D24,Calendar,$G24,$H24,$I24,$L$3,$J24,C24,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0034c#0001</v>
+      </c>
+      <c r="M24" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
-      <c r="M24" s="167"/>
-    </row>
-    <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="166"/>
+    </row>
+    <row r="25" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="169">
+        <v>2</v>
+      </c>
+      <c r="C25" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="170" t="s">
+      <c r="D25" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="170" t="str">
+      <c r="E25" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E25" s="170" t="str">
+      <c r="F25" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F25" s="156" t="str">
+      <c r="G25" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G25" s="156" t="s">
+      <c r="H25" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="156" t="str">
+      <c r="I25" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I25" s="171">
-        <v>0</v>
-      </c>
-      <c r="J25" s="176" t="str">
+      <c r="J25" s="170">
+        <v>0</v>
+      </c>
+      <c r="K25" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L18Y_Quote</v>
       </c>
-      <c r="K25" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033c#0003</v>
-      </c>
-      <c r="L25" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K25)</f>
+      <c r="L25" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K25,$B25,$D25,Calendar,$G25,$H25,$I25,$L$3,$J25,C25,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0033e#0001</v>
+      </c>
+      <c r="M25" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
-      <c r="M25" s="167"/>
-    </row>
-    <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="166"/>
+    </row>
+    <row r="26" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="169">
+        <v>2</v>
+      </c>
+      <c r="C26" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="170" t="s">
+      <c r="D26" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="170" t="str">
+      <c r="E26" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E26" s="170" t="str">
+      <c r="F26" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F26" s="156" t="str">
+      <c r="G26" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G26" s="156" t="s">
+      <c r="H26" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="156" t="str">
+      <c r="I26" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I26" s="171">
-        <v>0</v>
-      </c>
-      <c r="J26" s="176" t="str">
+      <c r="J26" s="170">
+        <v>0</v>
+      </c>
+      <c r="K26" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L19Y_Quote</v>
       </c>
-      <c r="K26" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0034a#0003</v>
-      </c>
-      <c r="L26" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K26)</f>
+      <c r="L26" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K26,$B26,$D26,Calendar,$G26,$H26,$I26,$L$3,$J26,C26,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0033f#0001</v>
+      </c>
+      <c r="M26" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
-      <c r="M26" s="167"/>
-    </row>
-    <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="166"/>
+    </row>
+    <row r="27" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
-      <c r="B27" s="170" t="s">
+      <c r="B27" s="169">
+        <v>2</v>
+      </c>
+      <c r="C27" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="170" t="s">
+      <c r="D27" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="170" t="str">
+      <c r="E27" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E27" s="170" t="str">
+      <c r="F27" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F27" s="156" t="str">
+      <c r="G27" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G27" s="156" t="s">
+      <c r="H27" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="156" t="str">
+      <c r="I27" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I27" s="171">
-        <v>0</v>
-      </c>
-      <c r="J27" s="176" t="str">
+      <c r="J27" s="170">
+        <v>0</v>
+      </c>
+      <c r="K27" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L20Y_Quote</v>
       </c>
-      <c r="K27" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00336#0003</v>
-      </c>
-      <c r="L27" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K27)</f>
+      <c r="L27" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K27,$B27,$D27,Calendar,$G27,$H27,$I27,$L$3,$J27,C27,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00330#0001</v>
+      </c>
+      <c r="M27" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
-      <c r="M27" s="167"/>
-    </row>
-    <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="166"/>
+    </row>
+    <row r="28" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
-      <c r="B28" s="170" t="s">
+      <c r="B28" s="169">
+        <v>2</v>
+      </c>
+      <c r="C28" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="170" t="s">
+      <c r="D28" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="170" t="str">
+      <c r="E28" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E28" s="170" t="str">
+      <c r="F28" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F28" s="156" t="str">
+      <c r="G28" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G28" s="156" t="s">
+      <c r="H28" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="156" t="str">
+      <c r="I28" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I28" s="171">
-        <v>0</v>
-      </c>
-      <c r="J28" s="176" t="str">
+      <c r="J28" s="170">
+        <v>0</v>
+      </c>
+      <c r="K28" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L21Y_Quote</v>
       </c>
-      <c r="K28" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00349#0003</v>
-      </c>
-      <c r="L28" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K28)</f>
+      <c r="L28" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K28,$B28,$D28,Calendar,$G28,$H28,$I28,$L$3,$J28,C28,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00340#0001</v>
+      </c>
+      <c r="M28" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
-      <c r="M28" s="167"/>
-    </row>
-    <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="166"/>
+    </row>
+    <row r="29" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="169">
+        <v>2</v>
+      </c>
+      <c r="C29" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="170" t="s">
+      <c r="D29" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="170" t="str">
+      <c r="E29" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E29" s="170" t="str">
+      <c r="F29" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F29" s="156" t="str">
+      <c r="G29" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G29" s="156" t="s">
+      <c r="H29" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="156" t="str">
+      <c r="I29" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I29" s="171">
-        <v>0</v>
-      </c>
-      <c r="J29" s="176" t="str">
+      <c r="J29" s="170">
+        <v>0</v>
+      </c>
+      <c r="K29" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L22Y_Quote</v>
       </c>
-      <c r="K29" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00335#0003</v>
-      </c>
-      <c r="L29" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K29)</f>
+      <c r="L29" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K29,$B29,$D29,Calendar,$G29,$H29,$I29,$L$3,$J29,C29,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0032a#0001</v>
+      </c>
+      <c r="M29" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
-      <c r="M29" s="167"/>
-    </row>
-    <row r="30" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="166"/>
+    </row>
+    <row r="30" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
-      <c r="B30" s="170" t="s">
+      <c r="B30" s="169">
+        <v>2</v>
+      </c>
+      <c r="C30" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="170" t="s">
+      <c r="D30" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="170" t="str">
+      <c r="E30" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E30" s="170" t="str">
+      <c r="F30" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F30" s="156" t="str">
+      <c r="G30" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G30" s="156" t="s">
+      <c r="H30" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H30" s="156" t="str">
+      <c r="I30" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I30" s="171">
-        <v>0</v>
-      </c>
-      <c r="J30" s="176" t="str">
+      <c r="J30" s="170">
+        <v>0</v>
+      </c>
+      <c r="K30" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L23Y_Quote</v>
       </c>
-      <c r="K30" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00328#0003</v>
-      </c>
-      <c r="L30" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K30)</f>
+      <c r="L30" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K30,$B30,$D30,Calendar,$G30,$H30,$I30,$L$3,$J30,C30,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00346#0001</v>
+      </c>
+      <c r="M30" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
-      <c r="M30" s="167"/>
-    </row>
-    <row r="31" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N30" s="166"/>
+    </row>
+    <row r="31" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
-      <c r="B31" s="170" t="s">
+      <c r="B31" s="169">
+        <v>2</v>
+      </c>
+      <c r="C31" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="170" t="s">
+      <c r="D31" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="170" t="str">
+      <c r="E31" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E31" s="170" t="str">
+      <c r="F31" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F31" s="156" t="str">
+      <c r="G31" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G31" s="156" t="s">
+      <c r="H31" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="156" t="str">
+      <c r="I31" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I31" s="171">
-        <v>0</v>
-      </c>
-      <c r="J31" s="176" t="str">
+      <c r="J31" s="170">
+        <v>0</v>
+      </c>
+      <c r="K31" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L24Y_Quote</v>
       </c>
-      <c r="K31" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00342#0003</v>
-      </c>
-      <c r="L31" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K31)</f>
+      <c r="L31" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K31,$B31,$D31,Calendar,$G31,$H31,$I31,$L$3,$J31,C31,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00338#0001</v>
+      </c>
+      <c r="M31" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
-      <c r="M31" s="167"/>
-    </row>
-    <row r="32" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N31" s="166"/>
+    </row>
+    <row r="32" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
-      <c r="B32" s="170" t="s">
+      <c r="B32" s="169">
+        <v>2</v>
+      </c>
+      <c r="C32" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="170" t="s">
+      <c r="D32" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="170" t="str">
+      <c r="E32" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E32" s="170" t="str">
+      <c r="F32" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F32" s="156" t="str">
+      <c r="G32" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G32" s="156" t="s">
+      <c r="H32" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="156" t="str">
+      <c r="I32" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I32" s="171">
-        <v>0</v>
-      </c>
-      <c r="J32" s="176" t="str">
+      <c r="J32" s="170">
+        <v>0</v>
+      </c>
+      <c r="K32" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L25Y_Quote</v>
       </c>
-      <c r="K32" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032b#0003</v>
-      </c>
-      <c r="L32" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K32)</f>
+      <c r="L32" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K32,$B32,$D32,Calendar,$G32,$H32,$I32,$L$3,$J32,C32,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00328#0001</v>
+      </c>
+      <c r="M32" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
-      <c r="M32" s="167"/>
-    </row>
-    <row r="33" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="166"/>
+    </row>
+    <row r="33" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55"/>
-      <c r="B33" s="170" t="s">
+      <c r="B33" s="169">
+        <v>2</v>
+      </c>
+      <c r="C33" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="170" t="s">
+      <c r="D33" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="170" t="str">
+      <c r="E33" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E33" s="170" t="str">
+      <c r="F33" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F33" s="156" t="str">
+      <c r="G33" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G33" s="156" t="s">
+      <c r="H33" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="156" t="str">
+      <c r="I33" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I33" s="171">
-        <v>0</v>
-      </c>
-      <c r="J33" s="176" t="str">
+      <c r="J33" s="170">
+        <v>0</v>
+      </c>
+      <c r="K33" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L26Y_Quote</v>
       </c>
-      <c r="K33" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00337#0003</v>
-      </c>
-      <c r="L33" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K33)</f>
+      <c r="L33" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K33,$B33,$D33,Calendar,$G33,$H33,$I33,$L$3,$J33,C33,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00343#0001</v>
+      </c>
+      <c r="M33" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L33)</f>
         <v/>
       </c>
-      <c r="M33" s="167"/>
-    </row>
-    <row r="34" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="166"/>
+    </row>
+    <row r="34" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55"/>
-      <c r="B34" s="170" t="s">
+      <c r="B34" s="169">
+        <v>2</v>
+      </c>
+      <c r="C34" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="170" t="s">
+      <c r="D34" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="170" t="str">
+      <c r="E34" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E34" s="170" t="str">
+      <c r="F34" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F34" s="156" t="str">
+      <c r="G34" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G34" s="156" t="s">
+      <c r="H34" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H34" s="156" t="str">
+      <c r="I34" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I34" s="171">
-        <v>0</v>
-      </c>
-      <c r="J34" s="176" t="str">
+      <c r="J34" s="170">
+        <v>0</v>
+      </c>
+      <c r="K34" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L27Y_Quote</v>
       </c>
-      <c r="K34" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00345#0003</v>
-      </c>
-      <c r="L34" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K34)</f>
+      <c r="L34" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K34,$B34,$D34,Calendar,$G34,$H34,$I34,$L$3,$J34,C34,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00344#0001</v>
+      </c>
+      <c r="M34" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L34)</f>
         <v/>
       </c>
-      <c r="M34" s="167"/>
-    </row>
-    <row r="35" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N34" s="166"/>
+    </row>
+    <row r="35" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55"/>
-      <c r="B35" s="170" t="s">
+      <c r="B35" s="169">
+        <v>2</v>
+      </c>
+      <c r="C35" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="170" t="s">
+      <c r="D35" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="170" t="str">
+      <c r="E35" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E35" s="170" t="str">
+      <c r="F35" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F35" s="156" t="str">
+      <c r="G35" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G35" s="156" t="s">
+      <c r="H35" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="156" t="str">
+      <c r="I35" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I35" s="171">
-        <v>0</v>
-      </c>
-      <c r="J35" s="176" t="str">
+      <c r="J35" s="170">
+        <v>0</v>
+      </c>
+      <c r="K35" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L28Y_Quote</v>
       </c>
-      <c r="K35" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00332#0003</v>
-      </c>
-      <c r="L35" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K35)</f>
+      <c r="L35" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K35,$B35,$D35,Calendar,$G35,$H35,$I35,$L$3,$J35,C35,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0032c#0001</v>
+      </c>
+      <c r="M35" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L35)</f>
         <v/>
       </c>
-      <c r="M35" s="167"/>
-    </row>
-    <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="166"/>
+    </row>
+    <row r="36" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="169">
+        <v>2</v>
+      </c>
+      <c r="C36" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="170" t="s">
+      <c r="D36" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="170" t="str">
+      <c r="E36" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E36" s="170" t="str">
+      <c r="F36" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F36" s="156" t="str">
+      <c r="G36" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G36" s="156" t="s">
+      <c r="H36" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="156" t="str">
+      <c r="I36" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I36" s="171">
-        <v>0</v>
-      </c>
-      <c r="J36" s="176" t="str">
+      <c r="J36" s="170">
+        <v>0</v>
+      </c>
+      <c r="K36" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L29Y_Quote</v>
       </c>
-      <c r="K36" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00344#0003</v>
-      </c>
-      <c r="L36" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K36)</f>
+      <c r="L36" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K36,$B36,$D36,Calendar,$G36,$H36,$I36,$L$3,$J36,C36,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00345#0001</v>
+      </c>
+      <c r="M36" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L36)</f>
         <v/>
       </c>
-      <c r="M36" s="167"/>
-    </row>
-    <row r="37" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="166"/>
+    </row>
+    <row r="37" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55"/>
-      <c r="B37" s="170" t="s">
+      <c r="B37" s="169">
+        <v>2</v>
+      </c>
+      <c r="C37" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="170" t="s">
+      <c r="D37" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="170" t="str">
+      <c r="E37" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E37" s="170" t="str">
+      <c r="F37" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F37" s="156" t="str">
+      <c r="G37" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G37" s="156" t="s">
+      <c r="H37" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H37" s="156" t="str">
+      <c r="I37" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I37" s="171">
-        <v>0</v>
-      </c>
-      <c r="J37" s="176" t="str">
+      <c r="J37" s="170">
+        <v>0</v>
+      </c>
+      <c r="K37" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L30Y_Quote</v>
       </c>
-      <c r="K37" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00343#0003</v>
-      </c>
-      <c r="L37" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K37)</f>
+      <c r="L37" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K37,$B37,$D37,Calendar,$G37,$H37,$I37,$L$3,$J37,C37,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00333#0001</v>
+      </c>
+      <c r="M37" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L37)</f>
         <v/>
       </c>
-      <c r="M37" s="167"/>
-    </row>
-    <row r="38" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N37" s="166"/>
+    </row>
+    <row r="38" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
-      <c r="B38" s="170" t="s">
+      <c r="B38" s="169">
+        <v>2</v>
+      </c>
+      <c r="C38" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="170" t="s">
+      <c r="D38" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="170" t="str">
+      <c r="E38" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E38" s="170" t="str">
+      <c r="F38" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F38" s="156" t="str">
+      <c r="G38" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G38" s="156" t="s">
+      <c r="H38" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H38" s="156" t="str">
+      <c r="I38" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I38" s="171">
-        <v>0</v>
-      </c>
-      <c r="J38" s="176" t="str">
+      <c r="J38" s="170">
+        <v>0</v>
+      </c>
+      <c r="K38" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L35Y_Quote</v>
       </c>
-      <c r="K38" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00348#0003</v>
-      </c>
-      <c r="L38" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K38)</f>
+      <c r="L38" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K38,$B38,$D38,Calendar,$G38,$H38,$I38,$L$3,$J38,C38,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0034b#0001</v>
+      </c>
+      <c r="M38" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L38)</f>
         <v/>
       </c>
-      <c r="M38" s="167"/>
-    </row>
-    <row r="39" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="166"/>
+    </row>
+    <row r="39" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55"/>
-      <c r="B39" s="170" t="s">
+      <c r="B39" s="169">
+        <v>2</v>
+      </c>
+      <c r="C39" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="170" t="s">
+      <c r="D39" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="170" t="str">
+      <c r="E39" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E39" s="170" t="str">
+      <c r="F39" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F39" s="156" t="str">
+      <c r="G39" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G39" s="156" t="s">
+      <c r="H39" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="156" t="str">
+      <c r="I39" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I39" s="171">
-        <v>0</v>
-      </c>
-      <c r="J39" s="176" t="str">
+      <c r="J39" s="170">
+        <v>0</v>
+      </c>
+      <c r="K39" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L40Y_Quote</v>
       </c>
-      <c r="K39" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033d#0003</v>
-      </c>
-      <c r="L39" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K39)</f>
+      <c r="L39" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K39,$B39,$D39,Calendar,$G39,$H39,$I39,$L$3,$J39,C39,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0033d#0001</v>
+      </c>
+      <c r="M39" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L39)</f>
         <v/>
       </c>
-      <c r="M39" s="167"/>
-    </row>
-    <row r="40" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N39" s="166"/>
+    </row>
+    <row r="40" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
-      <c r="B40" s="170" t="s">
+      <c r="B40" s="169">
+        <v>2</v>
+      </c>
+      <c r="C40" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="170" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="170" t="str">
+      <c r="D40" s="169" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E40" s="170" t="str">
+      <c r="F40" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="G40" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G40" s="156" t="s">
+      <c r="H40" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="I40" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I40" s="171">
-        <v>0</v>
-      </c>
-      <c r="J40" s="176" t="str">
+      <c r="J40" s="170">
+        <v>0</v>
+      </c>
+      <c r="K40" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L50Y_Quote</v>
       </c>
-      <c r="K40" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0034b#0003</v>
-      </c>
-      <c r="L40" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K40)</f>
+      <c r="L40" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K40,$B40,$D40,Calendar,$G40,$H40,$I40,$L$3,$J40,C40,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0032b#0001</v>
+      </c>
+      <c r="M40" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L40)</f>
         <v/>
       </c>
-      <c r="M40" s="167"/>
-    </row>
-    <row r="41" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N40" s="166"/>
+    </row>
+    <row r="41" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55"/>
-      <c r="B41" s="170" t="s">
+      <c r="B41" s="169">
+        <v>2</v>
+      </c>
+      <c r="C41" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="170" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="170" t="str">
+      <c r="D41" s="169" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="169" t="str">
         <v>SB</v>
       </c>
-      <c r="E41" s="170" t="str">
+      <c r="F41" s="169" t="str">
         <v>6L</v>
       </c>
-      <c r="F41" s="156" t="str">
+      <c r="G41" s="156" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G41" s="156" t="s">
+      <c r="H41" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="H41" s="156" t="str">
+      <c r="I41" s="156" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I41" s="171">
-        <v>0</v>
-      </c>
-      <c r="J41" s="176" t="str">
+      <c r="J41" s="170">
+        <v>0</v>
+      </c>
+      <c r="K41" s="175" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L60Y_Quote</v>
       </c>
-      <c r="K41" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00333#0003</v>
-      </c>
-      <c r="L41" s="166" t="str">
-        <f>_xll.ohRangeRetrieveError(K41)</f>
+      <c r="L41" s="172" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K41,$B41,$D41,Calendar,$G41,$H41,$I41,$L$3,$J41,C41,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00348#0001</v>
+      </c>
+      <c r="M41" s="165" t="str">
+        <f>_xll.ohRangeRetrieveError(L41)</f>
         <v/>
       </c>
-      <c r="M41" s="167"/>
-    </row>
-    <row r="42" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="166"/>
+    </row>
+    <row r="42" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="48"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -16820,13 +17267,14 @@
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
       <c r="J42" s="47"/>
-      <c r="K42" s="149"/>
+      <c r="K42" s="47"/>
       <c r="L42" s="149"/>
-      <c r="M42" s="183"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="182"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H41">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Month End Reference,Unadjusted Month End,Unadjusted"</formula1>
     </dataValidation>
   </dataValidations>
